--- a/2_white_card_corrected.xlsx
+++ b/2_white_card_corrected.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="213">
   <si>
     <t>device_type</t>
   </si>
@@ -26064,7 +26064,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26146,708 +26146,58 @@
         <v>184</v>
       </c>
       <c r="D2">
-        <v>12239.2</v>
+        <v>12425.43636363636</v>
       </c>
       <c r="E2">
-        <v>16012.7</v>
+        <v>16248.84545454546</v>
       </c>
       <c r="F2">
-        <v>19880.6</v>
+        <v>19857.51818181818</v>
       </c>
       <c r="G2">
-        <v>18382.5</v>
+        <v>18727.88181818182</v>
       </c>
       <c r="H2">
-        <v>17609.2</v>
+        <v>17806.14545454545</v>
       </c>
       <c r="I2">
-        <v>16400.1</v>
+        <v>15983.59090909091</v>
       </c>
       <c r="J2">
-        <v>10050.1</v>
+        <v>10612.63636363636</v>
       </c>
       <c r="K2">
-        <v>10829.4</v>
+        <v>11068.88181818182</v>
       </c>
       <c r="L2">
-        <v>26659.7</v>
+        <v>27466.08181818182</v>
       </c>
       <c r="M2">
-        <v>9716.92</v>
+        <v>9779.031818181818</v>
       </c>
       <c r="N2">
-        <v>24171.8</v>
+        <v>22157.04545454546</v>
       </c>
       <c r="O2">
-        <v>8035.13</v>
+        <v>7849.564545454546</v>
       </c>
       <c r="P2">
-        <v>20053.3</v>
+        <v>19993.2</v>
       </c>
       <c r="Q2">
-        <v>18650.5</v>
+        <v>18297.85454545455</v>
       </c>
       <c r="R2">
-        <v>18743</v>
+        <v>19312.49090909091</v>
       </c>
       <c r="S2">
-        <v>18831.5</v>
+        <v>19474.08181818182</v>
       </c>
       <c r="T2">
-        <v>4506.57</v>
+        <v>4477.12090909091</v>
       </c>
       <c r="U2">
-        <v>2669.11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3">
-        <v>12177.9</v>
-      </c>
-      <c r="E3">
-        <v>15910.7</v>
-      </c>
-      <c r="F3">
-        <v>19853.6</v>
-      </c>
-      <c r="G3">
-        <v>18305.3</v>
-      </c>
-      <c r="H3">
-        <v>17428.6</v>
-      </c>
-      <c r="I3">
-        <v>16251</v>
-      </c>
-      <c r="J3">
-        <v>10274</v>
-      </c>
-      <c r="K3">
-        <v>10929.7</v>
-      </c>
-      <c r="L3">
-        <v>27441.4</v>
-      </c>
-      <c r="M3">
-        <v>9805</v>
-      </c>
-      <c r="N3">
-        <v>23930.3</v>
-      </c>
-      <c r="O3">
-        <v>8045.99</v>
-      </c>
-      <c r="P3">
-        <v>19909.7</v>
-      </c>
-      <c r="Q3">
-        <v>18452.6</v>
-      </c>
-      <c r="R3">
-        <v>19004.1</v>
-      </c>
-      <c r="S3">
-        <v>19253.3</v>
-      </c>
-      <c r="T3">
-        <v>4498.24</v>
-      </c>
-      <c r="U3">
-        <v>2666.46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D4">
-        <v>12204.3</v>
-      </c>
-      <c r="E4">
-        <v>15829.9</v>
-      </c>
-      <c r="F4">
-        <v>19524</v>
-      </c>
-      <c r="G4">
-        <v>18691.6</v>
-      </c>
-      <c r="H4">
-        <v>17657.8</v>
-      </c>
-      <c r="I4">
-        <v>15865.8</v>
-      </c>
-      <c r="J4">
-        <v>10554.8</v>
-      </c>
-      <c r="K4">
-        <v>11061.9</v>
-      </c>
-      <c r="L4">
-        <v>27501.8</v>
-      </c>
-      <c r="M4">
-        <v>9733.950000000001</v>
-      </c>
-      <c r="N4">
-        <v>23279.1</v>
-      </c>
-      <c r="O4">
-        <v>7971.97</v>
-      </c>
-      <c r="P4">
-        <v>19565.9</v>
-      </c>
-      <c r="Q4">
-        <v>18235.7</v>
-      </c>
-      <c r="R4">
-        <v>19108.1</v>
-      </c>
-      <c r="S4">
-        <v>19504.7</v>
-      </c>
-      <c r="T4">
-        <v>4467.12</v>
-      </c>
-      <c r="U4">
-        <v>2622.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5">
-        <v>12358.3</v>
-      </c>
-      <c r="E5">
-        <v>16239.7</v>
-      </c>
-      <c r="F5">
-        <v>19113.7</v>
-      </c>
-      <c r="G5">
-        <v>18712</v>
-      </c>
-      <c r="H5">
-        <v>17618.8</v>
-      </c>
-      <c r="I5">
-        <v>14996.9</v>
-      </c>
-      <c r="J5">
-        <v>10776.1</v>
-      </c>
-      <c r="K5">
-        <v>11085.1</v>
-      </c>
-      <c r="L5">
-        <v>27365.1</v>
-      </c>
-      <c r="M5">
-        <v>9659.93</v>
-      </c>
-      <c r="N5">
-        <v>18827</v>
-      </c>
-      <c r="O5">
-        <v>7354.61</v>
-      </c>
-      <c r="P5">
-        <v>19706.4</v>
-      </c>
-      <c r="Q5">
-        <v>17200.9</v>
-      </c>
-      <c r="R5">
-        <v>19201.6</v>
-      </c>
-      <c r="S5">
-        <v>18763.4</v>
-      </c>
-      <c r="T5">
-        <v>4308.75</v>
-      </c>
-      <c r="U5">
-        <v>2710.58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6">
-        <v>12401.7</v>
-      </c>
-      <c r="E6">
-        <v>16261.9</v>
-      </c>
-      <c r="F6">
-        <v>19323.5</v>
-      </c>
-      <c r="G6">
-        <v>18801.1</v>
-      </c>
-      <c r="H6">
-        <v>17700.2</v>
-      </c>
-      <c r="I6">
-        <v>15232.9</v>
-      </c>
-      <c r="J6">
-        <v>10763.9</v>
-      </c>
-      <c r="K6">
-        <v>11094.4</v>
-      </c>
-      <c r="L6">
-        <v>27408.4</v>
-      </c>
-      <c r="M6">
-        <v>9693.610000000001</v>
-      </c>
-      <c r="N6">
-        <v>20588.7</v>
-      </c>
-      <c r="O6">
-        <v>7472.11</v>
-      </c>
-      <c r="P6">
-        <v>19886.1</v>
-      </c>
-      <c r="Q6">
-        <v>17847.3</v>
-      </c>
-      <c r="R6">
-        <v>19361.9</v>
-      </c>
-      <c r="S6">
-        <v>19101.8</v>
-      </c>
-      <c r="T6">
-        <v>4404.33</v>
-      </c>
-      <c r="U6">
-        <v>2708.82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7">
-        <v>12481.7</v>
-      </c>
-      <c r="E7">
-        <v>16376.4</v>
-      </c>
-      <c r="F7">
-        <v>19955.8</v>
-      </c>
-      <c r="G7">
-        <v>18829.2</v>
-      </c>
-      <c r="H7">
-        <v>17943.1</v>
-      </c>
-      <c r="I7">
-        <v>16140.1</v>
-      </c>
-      <c r="J7">
-        <v>10748.6</v>
-      </c>
-      <c r="K7">
-        <v>11123.9</v>
-      </c>
-      <c r="L7">
-        <v>27570.2</v>
-      </c>
-      <c r="M7">
-        <v>9748.379999999999</v>
-      </c>
-      <c r="N7">
-        <v>20765.1</v>
-      </c>
-      <c r="O7">
-        <v>7778.75</v>
-      </c>
-      <c r="P7">
-        <v>19924.6</v>
-      </c>
-      <c r="Q7">
-        <v>17924.8</v>
-      </c>
-      <c r="R7">
-        <v>19388.5</v>
-      </c>
-      <c r="S7">
-        <v>19631.6</v>
-      </c>
-      <c r="T7">
-        <v>4431.55</v>
-      </c>
-      <c r="U7">
-        <v>2742.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8">
-        <v>12679.9</v>
-      </c>
-      <c r="E8">
-        <v>16561.1</v>
-      </c>
-      <c r="F8">
-        <v>20418.1</v>
-      </c>
-      <c r="G8">
-        <v>19063.5</v>
-      </c>
-      <c r="H8">
-        <v>18093</v>
-      </c>
-      <c r="I8">
-        <v>16546.7</v>
-      </c>
-      <c r="J8">
-        <v>10732.4</v>
-      </c>
-      <c r="K8">
-        <v>11152.5</v>
-      </c>
-      <c r="L8">
-        <v>27653.4</v>
-      </c>
-      <c r="M8">
-        <v>9940.459999999999</v>
-      </c>
-      <c r="N8">
-        <v>22969.5</v>
-      </c>
-      <c r="O8">
-        <v>8002.53</v>
-      </c>
-      <c r="P8">
-        <v>20388.4</v>
-      </c>
-      <c r="Q8">
-        <v>18845.1</v>
-      </c>
-      <c r="R8">
-        <v>19529.6</v>
-      </c>
-      <c r="S8">
-        <v>19870.1</v>
-      </c>
-      <c r="T8">
-        <v>4572.14</v>
-      </c>
-      <c r="U8">
-        <v>2779.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9">
-        <v>12610.1</v>
-      </c>
-      <c r="E9">
-        <v>16480.3</v>
-      </c>
-      <c r="F9">
-        <v>20336.4</v>
-      </c>
-      <c r="G9">
-        <v>18901.3</v>
-      </c>
-      <c r="H9">
-        <v>18021.8</v>
-      </c>
-      <c r="I9">
-        <v>16364.5</v>
-      </c>
-      <c r="J9">
-        <v>10725.4</v>
-      </c>
-      <c r="K9">
-        <v>11132.7</v>
-      </c>
-      <c r="L9">
-        <v>27696.7</v>
-      </c>
-      <c r="M9">
-        <v>9889.389999999999</v>
-      </c>
-      <c r="N9">
-        <v>22925.2</v>
-      </c>
-      <c r="O9">
-        <v>7938.69</v>
-      </c>
-      <c r="P9">
-        <v>20298.1</v>
-      </c>
-      <c r="Q9">
-        <v>18751.9</v>
-      </c>
-      <c r="R9">
-        <v>19541.7</v>
-      </c>
-      <c r="S9">
-        <v>19811.4</v>
-      </c>
-      <c r="T9">
-        <v>4555.47</v>
-      </c>
-      <c r="U9">
-        <v>2770.58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10">
-        <v>12599.1</v>
-      </c>
-      <c r="E10">
-        <v>16416.8</v>
-      </c>
-      <c r="F10">
-        <v>20190.7</v>
-      </c>
-      <c r="G10">
-        <v>18851.2</v>
-      </c>
-      <c r="H10">
-        <v>17983.5</v>
-      </c>
-      <c r="I10">
-        <v>16168</v>
-      </c>
-      <c r="J10">
-        <v>10715.8</v>
-      </c>
-      <c r="K10">
-        <v>11123.9</v>
-      </c>
-      <c r="L10">
-        <v>27545.1</v>
-      </c>
-      <c r="M10">
-        <v>9862</v>
-      </c>
-      <c r="N10">
-        <v>22316.3</v>
-      </c>
-      <c r="O10">
-        <v>7927.82</v>
-      </c>
-      <c r="P10">
-        <v>20179.6</v>
-      </c>
-      <c r="Q10">
-        <v>18619.1</v>
-      </c>
-      <c r="R10">
-        <v>19512.6</v>
-      </c>
-      <c r="S10">
-        <v>19806.7</v>
-      </c>
-      <c r="T10">
-        <v>4541.58</v>
-      </c>
-      <c r="U10">
-        <v>2759.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11">
-        <v>12484.2</v>
-      </c>
-      <c r="E11">
-        <v>16332.1</v>
-      </c>
-      <c r="F11">
-        <v>20021.7</v>
-      </c>
-      <c r="G11">
-        <v>18722.2</v>
-      </c>
-      <c r="H11">
-        <v>17925.3</v>
-      </c>
-      <c r="I11">
-        <v>16037.6</v>
-      </c>
-      <c r="J11">
-        <v>10704</v>
-      </c>
-      <c r="K11">
-        <v>11091.9</v>
-      </c>
-      <c r="L11">
-        <v>27573.6</v>
-      </c>
-      <c r="M11">
-        <v>9779.1</v>
-      </c>
-      <c r="N11">
-        <v>21910.7</v>
-      </c>
-      <c r="O11">
-        <v>7848.02</v>
-      </c>
-      <c r="P11">
-        <v>20015.6</v>
-      </c>
-      <c r="Q11">
-        <v>18373.4</v>
-      </c>
-      <c r="R11">
-        <v>19500.6</v>
-      </c>
-      <c r="S11">
-        <v>19740.9</v>
-      </c>
-      <c r="T11">
-        <v>4495.46</v>
-      </c>
-      <c r="U11">
-        <v>2735.29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12">
-        <v>12443.4</v>
-      </c>
-      <c r="E12">
-        <v>16315.7</v>
-      </c>
-      <c r="F12">
-        <v>19814.6</v>
-      </c>
-      <c r="G12">
-        <v>18746.8</v>
-      </c>
-      <c r="H12">
-        <v>17886.3</v>
-      </c>
-      <c r="I12">
-        <v>15815.9</v>
-      </c>
-      <c r="J12">
-        <v>10693.9</v>
-      </c>
-      <c r="K12">
-        <v>11132.3</v>
-      </c>
-      <c r="L12">
-        <v>27711.5</v>
-      </c>
-      <c r="M12">
-        <v>9740.610000000001</v>
-      </c>
-      <c r="N12">
-        <v>22043.8</v>
-      </c>
-      <c r="O12">
-        <v>7969.59</v>
-      </c>
-      <c r="P12">
-        <v>19997.5</v>
-      </c>
-      <c r="Q12">
-        <v>18375.1</v>
-      </c>
-      <c r="R12">
-        <v>19545.7</v>
-      </c>
-      <c r="S12">
-        <v>19899.5</v>
-      </c>
-      <c r="T12">
-        <v>4467.12</v>
-      </c>
-      <c r="U12">
-        <v>2729.11</v>
+        <v>2717.640909090909</v>
       </c>
     </row>
   </sheetData>
@@ -26939,58 +26289,58 @@
         <v>119</v>
       </c>
       <c r="D2">
-        <v>0.1259731028171776</v>
+        <v>0.1240849781752681</v>
       </c>
       <c r="E2">
-        <v>0.1513548620782254</v>
+        <v>0.1491552127060216</v>
       </c>
       <c r="F2">
-        <v>0.2061361327122924</v>
+        <v>0.2063757395298415</v>
       </c>
       <c r="G2">
-        <v>0.1558966408268734</v>
+        <v>0.1530215764827066</v>
       </c>
       <c r="H2">
-        <v>0.1982440996751698</v>
+        <v>0.1960514143227364</v>
       </c>
       <c r="I2">
-        <v>0.2566130694325034</v>
+        <v>0.2633000321352296</v>
       </c>
       <c r="J2">
-        <v>0.2954876070884866</v>
+        <v>0.2798249085566949</v>
       </c>
       <c r="K2">
-        <v>0.2711221304966111</v>
+        <v>0.2652562425210068</v>
       </c>
       <c r="L2">
-        <v>0.2449566199169533</v>
+        <v>0.2377648928314559</v>
       </c>
       <c r="M2">
-        <v>0.1843835289371529</v>
+        <v>0.1832124113420784</v>
       </c>
       <c r="N2">
-        <v>0.3810949122531214</v>
+        <v>0.4157481203393133</v>
       </c>
       <c r="O2">
-        <v>0.3793006460380853</v>
+        <v>0.3882673978093284</v>
       </c>
       <c r="P2">
-        <v>0.2554587025576838</v>
+        <v>0.2562266170497969</v>
       </c>
       <c r="Q2">
-        <v>0.3832781962950055</v>
+        <v>0.3906649264394633</v>
       </c>
       <c r="R2">
-        <v>0.3997076241796937</v>
+        <v>0.3879209593037761</v>
       </c>
       <c r="S2">
-        <v>0.4476541964262008</v>
+        <v>0.4328830534197201</v>
       </c>
       <c r="T2">
-        <v>0.4283612592281936</v>
+        <v>0.4311788846444133</v>
       </c>
       <c r="U2">
-        <v>0.3295870158966847</v>
+        <v>0.3237013385606834</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -27004,58 +26354,58 @@
         <v>120</v>
       </c>
       <c r="D3">
-        <v>0.1320903327014838</v>
+        <v>0.1301105210865103</v>
       </c>
       <c r="E3">
-        <v>0.1545392095024574</v>
+        <v>0.1522932818163863</v>
       </c>
       <c r="F3">
-        <v>0.2168304779533817</v>
+        <v>0.2170825155757357</v>
       </c>
       <c r="G3">
-        <v>0.1652734938120495</v>
+        <v>0.1622255004327529</v>
       </c>
       <c r="H3">
-        <v>0.1996814165322672</v>
+        <v>0.1974728336896966</v>
       </c>
       <c r="I3">
-        <v>0.2514734666252035</v>
+        <v>0.2580264987672016</v>
       </c>
       <c r="J3">
-        <v>0.2756430284275778</v>
+        <v>0.2610322171682129</v>
       </c>
       <c r="K3">
-        <v>0.2915046078268418</v>
+        <v>0.285197732874389</v>
       </c>
       <c r="L3">
-        <v>0.2360236611814837</v>
+        <v>0.2290941984973863</v>
       </c>
       <c r="M3">
-        <v>0.2199585877006294</v>
+        <v>0.2185615140372234</v>
       </c>
       <c r="N3">
-        <v>0.3654258267898957</v>
+        <v>0.3986542347498743</v>
       </c>
       <c r="O3">
-        <v>0.3551267994419505</v>
+        <v>0.3635220760943195</v>
       </c>
       <c r="P3">
-        <v>0.2779597373000953</v>
+        <v>0.2787952903987356</v>
       </c>
       <c r="Q3">
-        <v>0.3961883059435404</v>
+        <v>0.4038238462134656</v>
       </c>
       <c r="R3">
-        <v>0.4003958811289548</v>
+        <v>0.3885889207832519</v>
       </c>
       <c r="S3">
-        <v>0.4140259671295435</v>
+        <v>0.4003644471042863</v>
       </c>
       <c r="T3">
-        <v>0.4404436189829516</v>
+        <v>0.4433407183553229</v>
       </c>
       <c r="U3">
-        <v>0.3371902993881856</v>
+        <v>0.3311688446363072</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -27069,58 +26419,58 @@
         <v>121</v>
       </c>
       <c r="D4">
-        <v>0.121105954637558</v>
+        <v>0.1192907803494006</v>
       </c>
       <c r="E4">
-        <v>0.1460072317597906</v>
+        <v>0.1438852998227006</v>
       </c>
       <c r="F4">
-        <v>0.1979165618743901</v>
+        <v>0.1981466144949909</v>
       </c>
       <c r="G4">
-        <v>0.153124983000136</v>
+        <v>0.150301033898412</v>
       </c>
       <c r="H4">
-        <v>0.1940860459305363</v>
+        <v>0.191939350867627</v>
       </c>
       <c r="I4">
-        <v>0.2529362625837648</v>
+        <v>0.259527413057141</v>
       </c>
       <c r="J4">
-        <v>0.2816051581576303</v>
+        <v>0.2666783165865735</v>
       </c>
       <c r="K4">
-        <v>0.2584021275416921</v>
+        <v>0.2528114443686107</v>
       </c>
       <c r="L4">
-        <v>0.215464540111104</v>
+        <v>0.2091386764965317</v>
       </c>
       <c r="M4">
-        <v>0.1897164945270724</v>
+        <v>0.1885115044387644</v>
       </c>
       <c r="N4">
-        <v>0.3698665386938499</v>
+        <v>0.4034987434737565</v>
       </c>
       <c r="O4">
-        <v>0.3658609132646267</v>
+        <v>0.3745099467590616</v>
       </c>
       <c r="P4">
-        <v>0.2605850408660919</v>
+        <v>0.261368365244183</v>
       </c>
       <c r="Q4">
-        <v>0.3839859521192461</v>
+        <v>0.3913863224898695</v>
       </c>
       <c r="R4">
-        <v>0.3857333404471003</v>
+        <v>0.3743587522724341</v>
       </c>
       <c r="S4">
-        <v>0.4361744948623317</v>
+        <v>0.4217821449394976</v>
       </c>
       <c r="T4">
-        <v>0.4292244434237125</v>
+        <v>0.4320477465936408</v>
       </c>
       <c r="U4">
-        <v>0.3219837324051837</v>
+        <v>0.3162338324850597</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -27134,58 +26484,58 @@
         <v>122</v>
       </c>
       <c r="D5">
-        <v>0.1077578599908491</v>
+        <v>0.1061427511600105</v>
       </c>
       <c r="E5">
-        <v>0.1365135173955672</v>
+        <v>0.134529558183994</v>
       </c>
       <c r="F5">
-        <v>0.1896507147671599</v>
+        <v>0.1898711594005842</v>
       </c>
       <c r="G5">
-        <v>0.1413463892288862</v>
+        <v>0.1387396623507876</v>
       </c>
       <c r="H5">
-        <v>0.1858096903891148</v>
+        <v>0.1837545362275333</v>
       </c>
       <c r="I5">
-        <v>0.2477564161194139</v>
+        <v>0.2542125873409946</v>
       </c>
       <c r="J5">
-        <v>0.2749037323011711</v>
+        <v>0.2603321083785197</v>
       </c>
       <c r="K5">
-        <v>0.2413651725857388</v>
+        <v>0.2361430940301927</v>
       </c>
       <c r="L5">
-        <v>0.164301923877613</v>
+        <v>0.1594781530542298</v>
       </c>
       <c r="M5">
-        <v>0.1517044495580904</v>
+        <v>0.1507408941301588</v>
       </c>
       <c r="N5">
-        <v>0.3480493798558651</v>
+        <v>0.3796977362012903</v>
       </c>
       <c r="O5">
-        <v>0.358127373172556</v>
+        <v>0.3665935840563709</v>
       </c>
       <c r="P5">
-        <v>0.2151910159425132</v>
+        <v>0.2158378848808595</v>
       </c>
       <c r="Q5">
-        <v>0.3498093884882443</v>
+        <v>0.3565510909376359</v>
       </c>
       <c r="R5">
-        <v>0.3605367337139199</v>
+        <v>0.3499051485284606</v>
       </c>
       <c r="S5">
-        <v>0.4252560868757136</v>
+        <v>0.411224009160894</v>
       </c>
       <c r="T5">
-        <v>0.4072742684569418</v>
+        <v>0.4099531902909195</v>
       </c>
       <c r="U5">
-        <v>0.2945457474588908</v>
+        <v>0.2892858277817826</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -27199,58 +26549,58 @@
         <v>123</v>
       </c>
       <c r="D6">
-        <v>0.1348021112491012</v>
+        <v>0.1327816546409931</v>
       </c>
       <c r="E6">
-        <v>0.1616292068170889</v>
+        <v>0.1592802397708816</v>
       </c>
       <c r="F6">
-        <v>0.2058091808094323</v>
+        <v>0.2060484075873255</v>
       </c>
       <c r="G6">
-        <v>0.1687838977288182</v>
+        <v>0.1656711650640489</v>
       </c>
       <c r="H6">
-        <v>0.1968448311110101</v>
+        <v>0.1946676224143248</v>
       </c>
       <c r="I6">
-        <v>0.2499314028572996</v>
+        <v>0.2564442510643017</v>
       </c>
       <c r="J6">
-        <v>0.2750340792628929</v>
+        <v>0.2604555461328263</v>
       </c>
       <c r="K6">
-        <v>0.2699161541728997</v>
+        <v>0.2640763582097888</v>
       </c>
       <c r="L6">
-        <v>0.209052990093662</v>
+        <v>0.2029153643717259</v>
       </c>
       <c r="M6">
-        <v>0.1977910695981854</v>
+        <v>0.1965347936005935</v>
       </c>
       <c r="N6">
-        <v>0.3616689696257623</v>
+        <v>0.3945557641218163</v>
       </c>
       <c r="O6">
-        <v>0.3517877122087633</v>
+        <v>0.3601040520950728</v>
       </c>
       <c r="P6">
-        <v>0.2715418409937517</v>
+        <v>0.2723581017545966</v>
       </c>
       <c r="Q6">
-        <v>0.3871247419640224</v>
+        <v>0.3945856046709896</v>
       </c>
       <c r="R6">
-        <v>0.3813477031425065</v>
+        <v>0.3701024395892625</v>
       </c>
       <c r="S6">
-        <v>0.4265039959642089</v>
+        <v>0.4124307412789679</v>
       </c>
       <c r="T6">
-        <v>0.4297170575404354</v>
+        <v>0.4325436009708349</v>
       </c>
       <c r="U6">
-        <v>0.3487604482393007</v>
+        <v>0.3425323768442215</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -27264,58 +26614,58 @@
         <v>124</v>
       </c>
       <c r="D7">
-        <v>0.1213845676187986</v>
+        <v>0.1195652173913044</v>
       </c>
       <c r="E7">
-        <v>0.1514747669037701</v>
+        <v>0.1492733749474787</v>
       </c>
       <c r="F7">
-        <v>0.1989909761274811</v>
+        <v>0.1992222776168587</v>
       </c>
       <c r="G7">
-        <v>0.1578827689378485</v>
+        <v>0.1549710761834445</v>
       </c>
       <c r="H7">
-        <v>0.1924153283510892</v>
+        <v>0.1902871123146453</v>
       </c>
       <c r="I7">
-        <v>0.2419838903421321</v>
+        <v>0.2482896379525593</v>
       </c>
       <c r="J7">
-        <v>0.2475736559835225</v>
+        <v>0.2344506977102768</v>
       </c>
       <c r="K7">
-        <v>0.2491061369974329</v>
+        <v>0.2437165780891064</v>
       </c>
       <c r="L7">
-        <v>0.1950764637261485</v>
+        <v>0.1893491774482841</v>
       </c>
       <c r="M7">
-        <v>0.1753950840389753</v>
+        <v>0.1742810568252016</v>
       </c>
       <c r="N7">
-        <v>0.3493302112378888</v>
+        <v>0.381095034413433</v>
       </c>
       <c r="O7">
-        <v>0.341687066668492</v>
+        <v>0.3497646250440528</v>
       </c>
       <c r="P7">
-        <v>0.2477492482534047</v>
+        <v>0.248493987955905</v>
       </c>
       <c r="Q7">
-        <v>0.3669193855392617</v>
+        <v>0.3739908404562084</v>
       </c>
       <c r="R7">
-        <v>0.3566670223550126</v>
+        <v>0.3461495480550976</v>
       </c>
       <c r="S7">
-        <v>0.38719804582747</v>
+        <v>0.3744217605778122</v>
       </c>
       <c r="T7">
-        <v>0.4101101281018602</v>
+        <v>0.4128077033271991</v>
       </c>
       <c r="U7">
-        <v>0.3203307469531042</v>
+        <v>0.3146103656078718</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -27329,58 +26679,58 @@
         <v>125</v>
       </c>
       <c r="D8">
-        <v>0.1352882541342571</v>
+        <v>0.1332605110630832</v>
       </c>
       <c r="E8">
-        <v>0.1645131676731594</v>
+        <v>0.1621222878492625</v>
       </c>
       <c r="F8">
-        <v>0.2060425741677817</v>
+        <v>0.2062820722355215</v>
       </c>
       <c r="G8">
-        <v>0.1743729090167279</v>
+        <v>0.1711571031427618</v>
       </c>
       <c r="H8">
-        <v>0.196339981373373</v>
+        <v>0.1941683565837331</v>
       </c>
       <c r="I8">
-        <v>0.2374363570953836</v>
+        <v>0.243623602615182</v>
       </c>
       <c r="J8">
-        <v>0.2333439468263998</v>
+        <v>0.2209752524863157</v>
       </c>
       <c r="K8">
-        <v>0.2606977302528303</v>
+        <v>0.2550573803545894</v>
       </c>
       <c r="L8">
-        <v>0.2229443692164578</v>
+        <v>0.2163989039042866</v>
       </c>
       <c r="M8">
-        <v>0.2026279932324234</v>
+        <v>0.2013409953671748</v>
       </c>
       <c r="N8">
-        <v>0.3465972745099661</v>
+        <v>0.3781135899724076</v>
       </c>
       <c r="O8">
-        <v>0.3293039440556655</v>
+        <v>0.3370887626540024</v>
       </c>
       <c r="P8">
-        <v>0.2775293841911307</v>
+        <v>0.2783636436388372</v>
       </c>
       <c r="Q8">
-        <v>0.3778842390284443</v>
+        <v>0.3851670141159121</v>
       </c>
       <c r="R8">
-        <v>0.3567529210905405</v>
+        <v>0.346232913790133</v>
       </c>
       <c r="S8">
-        <v>0.3595587181053023</v>
+        <v>0.3476944414230755</v>
       </c>
       <c r="T8">
-        <v>0.4147966191582512</v>
+        <v>0.4175250206453701</v>
       </c>
       <c r="U8">
-        <v>0.3461161211040384</v>
+        <v>0.3399352714001616</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -27394,58 +26744,58 @@
         <v>126</v>
       </c>
       <c r="D9">
-        <v>0.1322994966991307</v>
+        <v>0.1303165500681155</v>
       </c>
       <c r="E9">
-        <v>0.1551399826387805</v>
+        <v>0.152885323880354</v>
       </c>
       <c r="F9">
-        <v>0.2042212005673873</v>
+        <v>0.2044585815219059</v>
       </c>
       <c r="G9">
-        <v>0.1504920440636475</v>
+        <v>0.1477166519341361</v>
       </c>
       <c r="H9">
-        <v>0.1880636258319515</v>
+        <v>0.1859835419436395</v>
       </c>
       <c r="I9">
-        <v>0.2356967335565027</v>
+        <v>0.2418386470215192</v>
       </c>
       <c r="J9">
-        <v>0.2277738529964876</v>
+        <v>0.2157004086038086</v>
       </c>
       <c r="K9">
-        <v>0.2482889172068628</v>
+        <v>0.242917039333036</v>
       </c>
       <c r="L9">
-        <v>0.1967861603844004</v>
+        <v>0.1910086788035094</v>
       </c>
       <c r="M9">
-        <v>0.1841169835709258</v>
+        <v>0.1829475589468561</v>
       </c>
       <c r="N9">
-        <v>0.3400652826847814</v>
+        <v>0.3709876398847072</v>
       </c>
       <c r="O9">
-        <v>0.3264303128885283</v>
+        <v>0.3341471982058993</v>
       </c>
       <c r="P9">
-        <v>0.2520931716974264</v>
+        <v>0.2528509693295721</v>
       </c>
       <c r="Q9">
-        <v>0.367273263451382</v>
+        <v>0.3743515384814116</v>
       </c>
       <c r="R9">
-        <v>0.3437672731152964</v>
+        <v>0.3336301894110923</v>
       </c>
       <c r="S9">
-        <v>0.3519470036906247</v>
+        <v>0.3403338890058534</v>
       </c>
       <c r="T9">
-        <v>0.4067816543402189</v>
+        <v>0.4094573359137254</v>
       </c>
       <c r="U9">
-        <v>0.3438018665397829</v>
+        <v>0.3376623441788583</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -27459,58 +26809,58 @@
         <v>127</v>
       </c>
       <c r="D10">
-        <v>0.1916702072030851</v>
+        <v>0.1887973936163208</v>
       </c>
       <c r="E10">
-        <v>0.1290032286872295</v>
+        <v>0.1271284169560578</v>
       </c>
       <c r="F10">
-        <v>0.1758739675864914</v>
+        <v>0.1760783985181706</v>
       </c>
       <c r="G10">
-        <v>0.1017135862913097</v>
+        <v>0.09983777226663015</v>
       </c>
       <c r="H10">
-        <v>0.123756899802376</v>
+        <v>0.1223880825618939</v>
       </c>
       <c r="I10">
-        <v>0.1542447911902976</v>
+        <v>0.1582641857131888</v>
       </c>
       <c r="J10">
-        <v>0.2270335618551059</v>
+        <v>0.2149993575411817</v>
       </c>
       <c r="K10">
-        <v>0.2093126119637284</v>
+        <v>0.2047840095533999</v>
       </c>
       <c r="L10">
-        <v>0.06428466936987287</v>
+        <v>0.06239732377355342</v>
       </c>
       <c r="M10">
-        <v>0.07476669561959962</v>
+        <v>0.07429181267712411</v>
       </c>
       <c r="N10">
-        <v>0.07458815644676856</v>
+        <v>0.08137050599542521</v>
       </c>
       <c r="O10">
-        <v>0.2665034666520641</v>
+        <v>0.2728036679741702</v>
       </c>
       <c r="P10">
-        <v>0.5781093386125975</v>
+        <v>0.5798471480303303</v>
       </c>
       <c r="Q10">
-        <v>0.9178520683091607</v>
+        <v>0.9355413749451003</v>
       </c>
       <c r="R10">
-        <v>1.033751267139732</v>
+        <v>1.003267786180776</v>
       </c>
       <c r="S10">
-        <v>1.150173910734673</v>
+        <v>1.112221885592459</v>
       </c>
       <c r="T10">
-        <v>0.9685570178650282</v>
+        <v>0.9749278808032676</v>
       </c>
       <c r="U10">
-        <v>0.7719014952549725</v>
+        <v>0.7581170834998937</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -27524,58 +26874,58 @@
         <v>128</v>
       </c>
       <c r="D11">
-        <v>0.2350521275900385</v>
+        <v>0.2315290920823707</v>
       </c>
       <c r="E11">
-        <v>0.1504530778694411</v>
+        <v>0.1482665341817292</v>
       </c>
       <c r="F11">
-        <v>0.1562130921601964</v>
+        <v>0.1563946698456779</v>
       </c>
       <c r="G11">
-        <v>0.1259643682850537</v>
+        <v>0.1236413184619723</v>
       </c>
       <c r="H11">
-        <v>0.1228630488608227</v>
+        <v>0.1215041180879329</v>
       </c>
       <c r="I11">
-        <v>0.1550356400265852</v>
+        <v>0.1590756429178788</v>
       </c>
       <c r="J11">
-        <v>0.1850817404801942</v>
+        <v>0.1752712461131242</v>
       </c>
       <c r="K11">
-        <v>0.203983600199457</v>
+        <v>0.1995702941169223</v>
       </c>
       <c r="L11">
-        <v>0.1044625408387941</v>
+        <v>0.1013956056213465</v>
       </c>
       <c r="M11">
-        <v>0.1001333755963824</v>
+        <v>0.09949737541409333</v>
       </c>
       <c r="N11">
-        <v>0.0529418578674323</v>
+        <v>0.05775589541598711</v>
       </c>
       <c r="O11">
-        <v>0.1977852256279612</v>
+        <v>0.2024609124235149</v>
       </c>
       <c r="P11">
-        <v>0.6724977933806405</v>
+        <v>0.6745193365744353</v>
       </c>
       <c r="Q11">
-        <v>0.8340687917214016</v>
+        <v>0.8501433849174566</v>
       </c>
       <c r="R11">
-        <v>0.8558288427679667</v>
+        <v>0.830591976742325</v>
       </c>
       <c r="S11">
-        <v>0.9267557018824841</v>
+        <v>0.8961757562149038</v>
       </c>
       <c r="T11">
-        <v>0.9244147988381407</v>
+        <v>0.9304953081657792</v>
       </c>
       <c r="U11">
-        <v>0.8238026907845687</v>
+        <v>0.8090914412734307</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -27589,58 +26939,58 @@
         <v>129</v>
       </c>
       <c r="D12">
-        <v>0.2387361919079678</v>
+        <v>0.2351579384810339</v>
       </c>
       <c r="E12">
-        <v>0.1414408563202958</v>
+        <v>0.139385287793874</v>
       </c>
       <c r="F12">
-        <v>0.178676196895466</v>
+        <v>0.1788838850593341</v>
       </c>
       <c r="G12">
-        <v>0.1215759553923569</v>
+        <v>0.1193338372004406</v>
       </c>
       <c r="H12">
-        <v>0.1341310224200986</v>
+        <v>0.132647461856887</v>
       </c>
       <c r="I12">
-        <v>0.1263297175017226</v>
+        <v>0.1296216858767088</v>
       </c>
       <c r="J12">
-        <v>0.2180256912866538</v>
+        <v>0.2064689606729543</v>
       </c>
       <c r="K12">
-        <v>0.2205542319980793</v>
+        <v>0.2157824104758877</v>
       </c>
       <c r="L12">
-        <v>0.1078819341552981</v>
+        <v>0.104714608331797</v>
       </c>
       <c r="M12">
-        <v>0.1058462969747616</v>
+        <v>0.1051740109984861</v>
       </c>
       <c r="N12">
-        <v>0.06259070487096534</v>
+        <v>0.06828211834938608</v>
       </c>
       <c r="O12">
-        <v>0.1805421940902014</v>
+        <v>0.1848102517788769</v>
       </c>
       <c r="P12">
-        <v>0.7395690484857854</v>
+        <v>0.7417922093511793</v>
       </c>
       <c r="Q12">
-        <v>0.9248384761802633</v>
+        <v>0.9426624283820655</v>
       </c>
       <c r="R12">
-        <v>0.9878301232460119</v>
+        <v>0.9587007749106325</v>
       </c>
       <c r="S12">
-        <v>1.012165786049969</v>
+        <v>0.9787675833940587</v>
       </c>
       <c r="T12">
-        <v>1.011345657562182</v>
+        <v>1.01799797069261</v>
       </c>
       <c r="U12">
-        <v>0.8188422358014469</v>
+        <v>0.8042195687770642</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -27654,58 +27004,58 @@
         <v>130</v>
       </c>
       <c r="D13">
-        <v>0.2073820184325773</v>
+        <v>0.2042737112579914</v>
       </c>
       <c r="E13">
-        <v>0.1460072317597906</v>
+        <v>0.1438852998227006</v>
       </c>
       <c r="F13">
-        <v>0.1839999798798829</v>
+        <v>0.1842138562587012</v>
       </c>
       <c r="G13">
-        <v>0.1123840609275126</v>
+        <v>0.1103114607437525</v>
       </c>
       <c r="H13">
-        <v>0.1313722372396247</v>
+        <v>0.1299191903101892</v>
       </c>
       <c r="I13">
-        <v>0.174845275333687</v>
+        <v>0.1794014884583337</v>
       </c>
       <c r="J13">
-        <v>0.2033163849115929</v>
+        <v>0.1925393398949795</v>
       </c>
       <c r="K13">
-        <v>0.1932083033224371</v>
+        <v>0.1890281271738871</v>
       </c>
       <c r="L13">
-        <v>0.1263465080252216</v>
+        <v>0.1226370773340606</v>
       </c>
       <c r="M13">
-        <v>0.1053893620612293</v>
+        <v>0.1047199783209622</v>
       </c>
       <c r="N13">
-        <v>0.09000074466940816</v>
+        <v>0.09818457088346615</v>
       </c>
       <c r="O13">
-        <v>0.2513313412477458</v>
+        <v>0.2572728701453155</v>
       </c>
       <c r="P13">
-        <v>0.7739673769404537</v>
+        <v>0.7762939399395794</v>
       </c>
       <c r="Q13">
-        <v>1.075070373448433</v>
+        <v>1.095789670323992</v>
       </c>
       <c r="R13">
-        <v>1.036504294936776</v>
+        <v>1.00593963209868</v>
       </c>
       <c r="S13">
-        <v>1.207949446406287</v>
+        <v>1.168091015144138</v>
       </c>
       <c r="T13">
-        <v>1.16670771784306</v>
+        <v>1.174381953662185</v>
       </c>
       <c r="U13">
-        <v>0.8409919411339359</v>
+        <v>0.825973730558422</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -27719,58 +27069,58 @@
         <v>131</v>
       </c>
       <c r="D14">
-        <v>0.1845790574547356</v>
+        <v>0.1818125282594795</v>
       </c>
       <c r="E14">
-        <v>0.1451054475510064</v>
+        <v>0.1429966212984083</v>
       </c>
       <c r="F14">
-        <v>0.186288140196976</v>
+        <v>0.1865046762687089</v>
       </c>
       <c r="G14">
-        <v>0.1049933360533116</v>
+        <v>0.1030570364944441</v>
       </c>
       <c r="H14">
-        <v>0.1250778002407832</v>
+        <v>0.1236943731377727</v>
       </c>
       <c r="I14">
-        <v>0.1654739910122499</v>
+        <v>0.1697860021214939</v>
       </c>
       <c r="J14">
-        <v>0.2012706341230436</v>
+        <v>0.1906020267434191</v>
       </c>
       <c r="K14">
-        <v>0.1792056808318097</v>
+        <v>0.1753284597195906</v>
       </c>
       <c r="L14">
-        <v>0.10061553580873</v>
+        <v>0.09766154552937854</v>
       </c>
       <c r="M14">
-        <v>0.09624839969866995</v>
+        <v>0.09563707505902007</v>
       </c>
       <c r="N14">
-        <v>0.07723504248752679</v>
+        <v>0.0842580751043686</v>
       </c>
       <c r="O14">
-        <v>0.2345948354289227</v>
+        <v>0.2401407096004515</v>
       </c>
       <c r="P14">
-        <v>0.5883620152294137</v>
+        <v>0.5901306444191025</v>
       </c>
       <c r="Q14">
-        <v>0.808868394949197</v>
+        <v>0.8244573134257168</v>
       </c>
       <c r="R14">
-        <v>0.7700901669956783</v>
+        <v>0.7473815815859165</v>
       </c>
       <c r="S14">
-        <v>0.9835276000318615</v>
+        <v>0.951074365041834</v>
       </c>
       <c r="T14">
-        <v>0.9062879307322421</v>
+        <v>0.9122492072320014</v>
       </c>
       <c r="U14">
-        <v>0.7616546339416509</v>
+        <v>0.7480532079126113</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -27784,58 +27134,58 @@
         <v>132</v>
       </c>
       <c r="D15">
-        <v>0.2697431204653899</v>
+        <v>0.2657001254025834</v>
       </c>
       <c r="E15">
-        <v>0.1839808402080848</v>
+        <v>0.1813070355208453</v>
       </c>
       <c r="F15">
-        <v>0.2254700562357273</v>
+        <v>0.2257321362598182</v>
       </c>
       <c r="G15">
-        <v>0.1468891608867129</v>
+        <v>0.144180213556161</v>
       </c>
       <c r="H15">
-        <v>0.1737642823069759</v>
+        <v>0.1718423567756995</v>
       </c>
       <c r="I15">
-        <v>0.2399674392229316</v>
+        <v>0.246220641055173</v>
       </c>
       <c r="J15">
-        <v>0.2617605794967214</v>
+        <v>0.2478856251980915</v>
       </c>
       <c r="K15">
-        <v>0.2572746412543632</v>
+        <v>0.2517083519153203</v>
       </c>
       <c r="L15">
-        <v>0.1384854293184094</v>
+        <v>0.1344196097732443</v>
       </c>
       <c r="M15">
-        <v>0.1233672809902726</v>
+        <v>0.1225837099508364</v>
       </c>
       <c r="N15">
-        <v>0.08671344293763808</v>
+        <v>0.09459835266845143</v>
       </c>
       <c r="O15">
-        <v>0.318781401172103</v>
+        <v>0.3263174645125074</v>
       </c>
       <c r="P15">
-        <v>0.8643265696917714</v>
+        <v>0.8669247544165015</v>
       </c>
       <c r="Q15">
-        <v>1.110527867885579</v>
+        <v>1.131930519425029</v>
       </c>
       <c r="R15">
-        <v>1.114159953049138</v>
+        <v>1.081305363368221</v>
       </c>
       <c r="S15">
-        <v>1.187425324589119</v>
+        <v>1.148244123074539</v>
       </c>
       <c r="T15">
-        <v>1.215906998005135</v>
+        <v>1.223904851189878</v>
       </c>
       <c r="U15">
-        <v>1.028099254058469</v>
+        <v>1.009739730815999</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -27849,58 +27199,58 @@
         <v>133</v>
       </c>
       <c r="D16">
-        <v>0.2545182691679195</v>
+        <v>0.2507034689837124</v>
       </c>
       <c r="E16">
-        <v>0.1719641284730245</v>
+        <v>0.1694649633848111</v>
       </c>
       <c r="F16">
-        <v>0.2203796666096597</v>
+        <v>0.2206358297086471</v>
       </c>
       <c r="G16">
-        <v>0.1279042567659459</v>
+        <v>0.1255454312893707</v>
       </c>
       <c r="H16">
-        <v>0.1448555300638303</v>
+        <v>0.143253350732842</v>
       </c>
       <c r="I16">
-        <v>0.2026810812129194</v>
+        <v>0.2079626548818532</v>
       </c>
       <c r="J16">
-        <v>0.2409160107859623</v>
+        <v>0.2281459495113031</v>
       </c>
       <c r="K16">
-        <v>0.2336242081740448</v>
+        <v>0.228569609971279</v>
       </c>
       <c r="L16">
-        <v>0.1221150275509477</v>
+        <v>0.1185298296841493</v>
       </c>
       <c r="M16">
-        <v>0.1113696521119861</v>
+        <v>0.1106622843774737</v>
       </c>
       <c r="N16">
-        <v>0.09580751123209691</v>
+        <v>0.1045193505041491</v>
       </c>
       <c r="O16">
-        <v>0.2989173790592063</v>
+        <v>0.3059838524916437</v>
       </c>
       <c r="P16">
-        <v>0.85074775722699</v>
+        <v>0.8533051237420722</v>
       </c>
       <c r="Q16">
-        <v>1.147711857590949</v>
+        <v>1.16983113767933</v>
       </c>
       <c r="R16">
-        <v>1.092877340873926</v>
+        <v>1.060650337464119</v>
       </c>
       <c r="S16">
-        <v>1.239083450601386</v>
+        <v>1.19819769773251</v>
       </c>
       <c r="T16">
-        <v>1.224785147018686</v>
+        <v>1.23284139787075</v>
       </c>
       <c r="U16">
-        <v>0.9874377601522604</v>
+        <v>0.9698043590614185</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -27914,58 +27264,58 @@
         <v>134</v>
       </c>
       <c r="D17">
-        <v>0.2388056408915615</v>
+        <v>0.2352263465413325</v>
       </c>
       <c r="E17">
-        <v>0.1693199772680435</v>
+        <v>0.1668592397893444</v>
       </c>
       <c r="F17">
-        <v>0.2192121968149855</v>
+        <v>0.2194670028800633</v>
       </c>
       <c r="G17">
-        <v>0.1188973208214334</v>
+        <v>0.1167046023260408</v>
       </c>
       <c r="H17">
-        <v>0.135452490743475</v>
+        <v>0.1339543140366248</v>
       </c>
       <c r="I17">
-        <v>0.1744891799440247</v>
+        <v>0.1790361137416498</v>
       </c>
       <c r="J17">
-        <v>0.1799474632093213</v>
+        <v>0.1704091177755507</v>
       </c>
       <c r="K17">
-        <v>0.1939091731767226</v>
+        <v>0.1897138332935001</v>
       </c>
       <c r="L17">
-        <v>0.09240914188831832</v>
+        <v>0.08969608465846635</v>
       </c>
       <c r="M17">
-        <v>0.09358222564351668</v>
+        <v>0.09298783528951322</v>
       </c>
       <c r="N17">
-        <v>0.0721543285977875</v>
+        <v>0.07871536859812699</v>
       </c>
       <c r="O17">
-        <v>0.2448224235326622</v>
+        <v>0.2506100801654197</v>
       </c>
       <c r="P17">
-        <v>0.7422718455316581</v>
+        <v>0.7445031310645619</v>
       </c>
       <c r="Q17">
-        <v>1.034749738612906</v>
+        <v>1.054691955937209</v>
       </c>
       <c r="R17">
-        <v>1.019521954863149</v>
+        <v>0.9894580709423106</v>
       </c>
       <c r="S17">
-        <v>1.15641345617715</v>
+        <v>1.118255546182828</v>
       </c>
       <c r="T17">
-        <v>1.116769516505902</v>
+        <v>1.124115274568701</v>
       </c>
       <c r="U17">
-        <v>0.94842850238469</v>
+        <v>0.9314917182516254</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -27979,58 +27329,58 @@
         <v>135</v>
       </c>
       <c r="D18">
-        <v>0.235191025557226</v>
+        <v>0.2316659082029679</v>
       </c>
       <c r="E18">
-        <v>0.1630711872451242</v>
+        <v>0.160701263810072</v>
       </c>
       <c r="F18">
-        <v>0.2144955383640333</v>
+        <v>0.2147448619185681</v>
       </c>
       <c r="G18">
-        <v>0.1154788521691826</v>
+        <v>0.1133491774782082</v>
       </c>
       <c r="H18">
-        <v>0.1312950048838107</v>
+        <v>0.1298428121853742</v>
       </c>
       <c r="I18">
-        <v>0.1714446863128884</v>
+        <v>0.1759122850423303</v>
       </c>
       <c r="J18">
-        <v>0.1809046676152476</v>
+        <v>0.1713155843377107</v>
       </c>
       <c r="K18">
-        <v>0.1883465381276895</v>
+        <v>0.1842715491504849</v>
       </c>
       <c r="L18">
-        <v>0.08958802987280426</v>
+        <v>0.08695779819671799</v>
       </c>
       <c r="M18">
-        <v>0.09594367350971296</v>
+        <v>0.09533428434772545</v>
       </c>
       <c r="N18">
-        <v>0.07373426885875277</v>
+        <v>0.08043897385399676</v>
       </c>
       <c r="O18">
-        <v>0.2433862302165615</v>
+        <v>0.2491399349193777</v>
       </c>
       <c r="P18">
-        <v>0.7009070826248049</v>
+        <v>0.7030140247684212</v>
       </c>
       <c r="Q18">
-        <v>1.00632154633924</v>
+        <v>1.025715881245889</v>
       </c>
       <c r="R18">
-        <v>0.9978071813477032</v>
+        <v>0.9683836273650497</v>
       </c>
       <c r="S18">
-        <v>1.138942728938215</v>
+        <v>1.101361296529793</v>
       </c>
       <c r="T18">
-        <v>1.081010613393335</v>
+        <v>1.088121160656615</v>
       </c>
       <c r="U18">
-        <v>0.915042841996021</v>
+        <v>0.8987022501133168</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -28044,58 +27394,58 @@
         <v>136</v>
       </c>
       <c r="D19">
-        <v>0.2356771684423818</v>
+        <v>0.2321447646250581</v>
       </c>
       <c r="E19">
-        <v>0.1631917165749686</v>
+        <v>0.1608200414798701</v>
       </c>
       <c r="F19">
-        <v>0.2153360562558474</v>
+        <v>0.2155863568046359</v>
       </c>
       <c r="G19">
-        <v>0.1164025567795458</v>
+        <v>0.1142558470185678</v>
       </c>
       <c r="H19">
-        <v>0.1330435227040411</v>
+        <v>0.1315719904670298</v>
       </c>
       <c r="I19">
-        <v>0.1718007817025506</v>
+        <v>0.1762776597590142</v>
       </c>
       <c r="J19">
-        <v>0.1795992079680799</v>
+        <v>0.1700793222487773</v>
       </c>
       <c r="K19">
-        <v>0.1876456682734039</v>
+        <v>0.1835858430308719</v>
       </c>
       <c r="L19">
-        <v>0.08980183572958436</v>
+        <v>0.08716532688747675</v>
       </c>
       <c r="M19">
-        <v>0.08984956138364832</v>
+        <v>0.08927887916028125</v>
       </c>
       <c r="N19">
-        <v>0.07185563342407268</v>
+        <v>0.07838951287811181</v>
       </c>
       <c r="O19">
-        <v>0.2462175471958761</v>
+        <v>0.2520381848628314</v>
       </c>
       <c r="P19">
-        <v>0.7066567597353054</v>
+        <v>0.7087809855350818</v>
       </c>
       <c r="Q19">
-        <v>1.017195249457119</v>
+        <v>1.036799147838495</v>
       </c>
       <c r="R19">
-        <v>1.010105105906205</v>
+        <v>0.980318908064211</v>
       </c>
       <c r="S19">
-        <v>1.135576029524998</v>
+        <v>1.098105687326138</v>
       </c>
       <c r="T19">
-        <v>1.096669972950603</v>
+        <v>1.103883522547871</v>
       </c>
       <c r="U19">
-        <v>0.9183473142732971</v>
+        <v>0.9019477120028903</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -28109,58 +27459,58 @@
         <v>137</v>
       </c>
       <c r="D20">
-        <v>0.2586892934178704</v>
+        <v>0.2548119766051751</v>
       </c>
       <c r="E20">
-        <v>0.1713627308324018</v>
+        <v>0.1688723058925025</v>
       </c>
       <c r="F20">
-        <v>0.2117400883273141</v>
+        <v>0.2119862090245646</v>
       </c>
       <c r="G20">
-        <v>0.1271192710458316</v>
+        <v>0.1247749223690297</v>
       </c>
       <c r="H20">
-        <v>0.1428349953433432</v>
+        <v>0.1412551642027574</v>
       </c>
       <c r="I20">
-        <v>0.1837811964561192</v>
+        <v>0.1885702666655291</v>
       </c>
       <c r="J20">
-        <v>0.1854737763803345</v>
+        <v>0.1756425016489777</v>
       </c>
       <c r="K20">
-        <v>0.2095462352484903</v>
+        <v>0.2050125782599375</v>
       </c>
       <c r="L20">
-        <v>0.09262294774509841</v>
+        <v>0.0899036133492251</v>
       </c>
       <c r="M20">
-        <v>0.09739094280903826</v>
+        <v>0.0967723612720538</v>
       </c>
       <c r="N20">
-        <v>0.07433207291140917</v>
+        <v>0.08109113661773906</v>
       </c>
       <c r="O20">
-        <v>0.2673485058735826</v>
+        <v>0.2736686841111394</v>
       </c>
       <c r="P20">
-        <v>0.7646522018819845</v>
+        <v>0.7669507632595082</v>
       </c>
       <c r="Q20">
-        <v>1.069767566553176</v>
+        <v>1.090384665067539</v>
       </c>
       <c r="R20">
-        <v>1.062305927546284</v>
+        <v>1.030980420585076</v>
       </c>
       <c r="S20">
-        <v>1.156100151342166</v>
+        <v>1.117952579395737</v>
       </c>
       <c r="T20">
-        <v>1.152898989697264</v>
+        <v>1.16048239605282</v>
       </c>
       <c r="U20">
-        <v>0.9795062773733566</v>
+        <v>0.9620145145940412</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -28174,58 +27524,58 @@
         <v>138</v>
       </c>
       <c r="D21">
-        <v>0.1886814497679587</v>
+        <v>0.185853432621353</v>
       </c>
       <c r="E21">
-        <v>0.1314063212325217</v>
+        <v>0.1294965852119283</v>
       </c>
       <c r="F21">
-        <v>0.1380466384314357</v>
+        <v>0.1382070999442849</v>
       </c>
       <c r="G21">
-        <v>0.1125690194478444</v>
+        <v>0.1104930082371107</v>
       </c>
       <c r="H21">
-        <v>0.1289246530222838</v>
+        <v>0.1274986776781867</v>
       </c>
       <c r="I21">
-        <v>0.1364522167547759</v>
+        <v>0.1400079627117584</v>
       </c>
       <c r="J21">
-        <v>0.1539228465388404</v>
+        <v>0.1457639691962412</v>
       </c>
       <c r="K21">
-        <v>0.1935591999556762</v>
+        <v>0.189371431950505</v>
       </c>
       <c r="L21">
-        <v>0.117413549289752</v>
+        <v>0.1139663829999911</v>
       </c>
       <c r="M21">
-        <v>0.1406968463257905</v>
+        <v>0.1398032060247645</v>
       </c>
       <c r="N21">
-        <v>0.06779966738099769</v>
+        <v>0.07396473520632672</v>
       </c>
       <c r="O21">
-        <v>0.1649481713425918</v>
+        <v>0.1688475828595472</v>
       </c>
       <c r="P21">
-        <v>0.5451172624954497</v>
+        <v>0.5467558970049816</v>
       </c>
       <c r="Q21">
-        <v>0.5751159486340849</v>
+        <v>0.5861998724142522</v>
       </c>
       <c r="R21">
-        <v>0.6119457930960892</v>
+        <v>0.5939006031894573</v>
       </c>
       <c r="S21">
-        <v>0.6316437883333775</v>
+        <v>0.6108015828964277</v>
       </c>
       <c r="T21">
-        <v>0.7198534583951876</v>
+        <v>0.7245884276685117</v>
       </c>
       <c r="U21">
-        <v>0.6750414932318263</v>
+        <v>0.662986781650529</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -28239,58 +27589,58 @@
         <v>139</v>
       </c>
       <c r="D22">
-        <v>0.183605954637558</v>
+        <v>0.1808540106145898</v>
       </c>
       <c r="E22">
-        <v>0.1341703772630475</v>
+        <v>0.1322204710488521</v>
       </c>
       <c r="F22">
-        <v>0.1508893091757794</v>
+        <v>0.1510646986463108</v>
       </c>
       <c r="G22">
-        <v>0.1086424588603291</v>
+        <v>0.1066388617457587</v>
       </c>
       <c r="H22">
-        <v>0.1443506803261931</v>
+        <v>0.1427540849022503</v>
       </c>
       <c r="I22">
-        <v>0.1675300760361218</v>
+        <v>0.1718956657253604</v>
       </c>
       <c r="J22">
-        <v>0.1915224724132098</v>
+        <v>0.1813705788125648</v>
       </c>
       <c r="K22">
-        <v>0.2172862762479916</v>
+        <v>0.2125851588852286</v>
       </c>
       <c r="L22">
-        <v>0.1482308503096434</v>
+        <v>0.1438789131321971</v>
       </c>
       <c r="M22">
-        <v>0.1322414921600672</v>
+        <v>0.1314015562983322</v>
       </c>
       <c r="N22">
-        <v>0.0876099421640093</v>
+        <v>0.09557637115220891</v>
       </c>
       <c r="O22">
-        <v>0.1971094431577336</v>
+        <v>0.2017691543051433</v>
       </c>
       <c r="P22">
-        <v>0.6361795814155277</v>
+        <v>0.6380919512634295</v>
       </c>
       <c r="Q22">
-        <v>0.6708345620760837</v>
+        <v>0.6837632231101111</v>
       </c>
       <c r="R22">
-        <v>0.6954916502160807</v>
+        <v>0.6749828420042798</v>
       </c>
       <c r="S22">
-        <v>0.6399437113347317</v>
+        <v>0.6188276352391919</v>
       </c>
       <c r="T22">
-        <v>0.7774360544715827</v>
+        <v>0.782549783921607</v>
       </c>
       <c r="U22">
-        <v>0.7140507509993969</v>
+        <v>0.7012994224603224</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -28304,58 +27654,58 @@
         <v>140</v>
       </c>
       <c r="D23">
-        <v>0.1631667102424995</v>
+        <v>0.1607211160683584</v>
       </c>
       <c r="E23">
-        <v>0.1181874387205156</v>
+        <v>0.1164698135196179</v>
       </c>
       <c r="F23">
-        <v>0.130854702574369</v>
+        <v>0.1310068043841421</v>
       </c>
       <c r="G23">
-        <v>0.1048089215286278</v>
+        <v>0.1028760229643016</v>
       </c>
       <c r="H23">
-        <v>0.1136542261999409</v>
+        <v>0.1123971499114708</v>
       </c>
       <c r="I23">
-        <v>0.1346729593112237</v>
+        <v>0.1381823404116153</v>
       </c>
       <c r="J23">
-        <v>0.1901742271221182</v>
+        <v>0.180093798987485</v>
       </c>
       <c r="K23">
-        <v>0.1904463774539679</v>
+        <v>0.1863259572084558</v>
       </c>
       <c r="L23">
-        <v>0.1363481209465973</v>
+        <v>0.1323450510365015</v>
       </c>
       <c r="M23">
-        <v>0.119063448088489</v>
+        <v>0.1183072129746996</v>
       </c>
       <c r="N23">
-        <v>0.1106227091073069</v>
+        <v>0.1206817039521597</v>
       </c>
       <c r="O23">
-        <v>0.2383570645403373</v>
+        <v>0.2439918786461924</v>
       </c>
       <c r="P23">
-        <v>0.4864201901931353</v>
+        <v>0.4878823800092031</v>
       </c>
       <c r="Q23">
-        <v>0.5922254095064475</v>
+        <v>0.6036390754206652</v>
       </c>
       <c r="R23">
-        <v>0.7062369951448541</v>
+        <v>0.6854113258776467</v>
       </c>
       <c r="S23">
-        <v>0.7968563311472798</v>
+        <v>0.7705626452688398</v>
       </c>
       <c r="T23">
-        <v>0.6919852570802185</v>
+        <v>0.6965369181046341</v>
       </c>
       <c r="U23">
-        <v>0.5695868660339963</v>
+        <v>0.5594153351586687</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -28369,58 +27719,58 @@
         <v>141</v>
       </c>
       <c r="D24">
-        <v>0.1637231191581149</v>
+        <v>0.1612691853514565</v>
       </c>
       <c r="E24">
-        <v>0.1074322256708737</v>
+        <v>0.1058709066322474</v>
       </c>
       <c r="F24">
-        <v>0.1415490478154583</v>
+        <v>0.1417135804300363</v>
       </c>
       <c r="G24">
-        <v>0.1060557595539236</v>
+        <v>0.1040998666548224</v>
       </c>
       <c r="H24">
-        <v>0.1178117120596052</v>
+        <v>0.1165086517627214</v>
       </c>
       <c r="I24">
-        <v>0.157803306077402</v>
+        <v>0.1619154303134749</v>
       </c>
       <c r="J24">
-        <v>0.2025760937702112</v>
+        <v>0.1918382888323526</v>
       </c>
       <c r="K24">
-        <v>0.1899024876724472</v>
+        <v>0.1857938348046982</v>
       </c>
       <c r="L24">
-        <v>0.1344677547009156</v>
+        <v>0.1305198908140917</v>
       </c>
       <c r="M24">
-        <v>0.1294226977272634</v>
+        <v>0.1286006655241479</v>
       </c>
       <c r="N24">
-        <v>0.1747077172572998</v>
+        <v>0.1905940035490455</v>
       </c>
       <c r="O24">
-        <v>0.3135406645567651</v>
+        <v>0.3209528357160751</v>
       </c>
       <c r="P24">
-        <v>0.4513177382276234</v>
+        <v>0.4526744092991617</v>
       </c>
       <c r="Q24">
-        <v>0.6056245140880941</v>
+        <v>0.6172964142840391</v>
       </c>
       <c r="R24">
-        <v>0.7152270180867524</v>
+        <v>0.6941362490785521</v>
       </c>
       <c r="S24">
-        <v>0.8790855747019621</v>
+        <v>0.8500785893044787</v>
       </c>
       <c r="T24">
-        <v>0.7221944849408752</v>
+        <v>0.7269448527493215</v>
       </c>
       <c r="U24">
-        <v>0.5583471644106087</v>
+        <v>0.5483763491397117</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -28434,58 +27784,58 @@
         <v>142</v>
       </c>
       <c r="D25">
-        <v>0.1662257337080855</v>
+        <v>0.1637342899243341</v>
       </c>
       <c r="E25">
-        <v>0.1216122203001368</v>
+        <v>0.1198448225412378</v>
       </c>
       <c r="F25">
-        <v>0.1269785620152309</v>
+        <v>0.1271261583087148</v>
       </c>
       <c r="G25">
-        <v>0.09450781993744049</v>
+        <v>0.09276489551067998</v>
       </c>
       <c r="H25">
-        <v>0.1152471435386048</v>
+        <v>0.1139724487357787</v>
       </c>
       <c r="I25">
-        <v>0.1415924293144554</v>
+        <v>0.1452821217214245</v>
       </c>
       <c r="J25">
-        <v>0.1842120973920657</v>
+        <v>0.1744476995691243</v>
       </c>
       <c r="K25">
-        <v>0.185857018856077</v>
+        <v>0.1818358921037437</v>
       </c>
       <c r="L25">
-        <v>0.1262609856825095</v>
+        <v>0.1225540658577571</v>
       </c>
       <c r="M25">
-        <v>0.1262231241998493</v>
+        <v>0.1254214141853604</v>
       </c>
       <c r="N25">
-        <v>0.2196654779536485</v>
+        <v>0.2396398026484496</v>
       </c>
       <c r="O25">
-        <v>0.3225000715607588</v>
+        <v>0.3301240450975798</v>
       </c>
       <c r="P25">
-        <v>0.4190726713309032</v>
+        <v>0.420332413020427</v>
       </c>
       <c r="Q25">
-        <v>0.6222460523846546</v>
+        <v>0.6342382912253994</v>
       </c>
       <c r="R25">
-        <v>0.7668249479805794</v>
+        <v>0.7442126480553801</v>
       </c>
       <c r="S25">
-        <v>0.9162095425218383</v>
+        <v>0.8859775860596063</v>
       </c>
       <c r="T25">
-        <v>0.6959306079790174</v>
+        <v>0.7005082202787384</v>
       </c>
       <c r="U25">
-        <v>0.5461146224771554</v>
+        <v>0.5363622526890803</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -28499,58 +27849,58 @@
         <v>143</v>
       </c>
       <c r="D26">
-        <v>0.1760972939407804</v>
+        <v>0.1734578920952475</v>
       </c>
       <c r="E26">
-        <v>0.1084539147052027</v>
+        <v>0.1068777473979969</v>
       </c>
       <c r="F26">
-        <v>0.1263246582095108</v>
+        <v>0.1264714944236829</v>
       </c>
       <c r="G26">
-        <v>0.1091967904256766</v>
+        <v>0.1071829702626177</v>
       </c>
       <c r="H26">
-        <v>0.1223968153010926</v>
+        <v>0.1210430413197487</v>
       </c>
       <c r="I26">
-        <v>0.1432131511393223</v>
+        <v>0.1469450771956467</v>
       </c>
       <c r="J26">
-        <v>0.2098436831474313</v>
+        <v>0.1987206503396466</v>
       </c>
       <c r="K26">
-        <v>0.2114521580142944</v>
+        <v>0.2068772652571459</v>
       </c>
       <c r="L26">
-        <v>0.1301507518839297</v>
+        <v>0.1263296316878768</v>
       </c>
       <c r="M26">
-        <v>0.1409633916920176</v>
+        <v>0.1400680584199867</v>
       </c>
       <c r="N26">
-        <v>0.09815570209914032</v>
+        <v>0.1070810638930773</v>
       </c>
       <c r="O26">
-        <v>0.2468087012904583</v>
+        <v>0.2526433139719042</v>
       </c>
       <c r="P26">
-        <v>0.5275091880139429</v>
+        <v>0.5290948922633695</v>
       </c>
       <c r="Q26">
-        <v>0.5964290501595132</v>
+        <v>0.6079237307503512</v>
       </c>
       <c r="R26">
-        <v>0.7445072827188817</v>
+        <v>0.7225530909340822</v>
       </c>
       <c r="S26">
-        <v>0.7723973130127711</v>
+        <v>0.7469106957545902</v>
       </c>
       <c r="T26">
-        <v>0.7202218094914759</v>
+        <v>0.7249592016622695</v>
       </c>
       <c r="U26">
-        <v>0.6056213494385769</v>
+        <v>0.5948063243354447</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -28564,58 +27914,58 @@
         <v>144</v>
       </c>
       <c r="D27">
-        <v>0.1630972612589058</v>
+        <v>0.1606527080080598</v>
       </c>
       <c r="E27">
-        <v>0.100522710098859</v>
+        <v>0.09906180746827883</v>
       </c>
       <c r="F27">
-        <v>0.1333299799804835</v>
+        <v>0.1334849589827897</v>
       </c>
       <c r="G27">
-        <v>0.09774133006935945</v>
+        <v>0.09593877286515437</v>
       </c>
       <c r="H27">
-        <v>0.09803398223655815</v>
+        <v>0.09694967416765204</v>
       </c>
       <c r="I27">
-        <v>0.1294534789422016</v>
+        <v>0.1328268479889887</v>
       </c>
       <c r="J27">
-        <v>0.1992258783494691</v>
+        <v>0.1886656558647924</v>
       </c>
       <c r="K27">
-        <v>0.1645400483867989</v>
+        <v>0.1609801269242109</v>
       </c>
       <c r="L27">
-        <v>0.1046763466955742</v>
+        <v>0.1016031343121053</v>
       </c>
       <c r="M27">
-        <v>0.111179262564681</v>
+        <v>0.1104731040951721</v>
       </c>
       <c r="N27">
-        <v>0.1998978148089923</v>
+        <v>0.2180746530448964</v>
       </c>
       <c r="O27">
-        <v>0.2871689692637207</v>
+        <v>0.2939577076713346</v>
       </c>
       <c r="P27">
-        <v>0.3826402636972469</v>
+        <v>0.3837904887661805</v>
       </c>
       <c r="Q27">
-        <v>0.5701187635720222</v>
+        <v>0.581106379088656</v>
       </c>
       <c r="R27">
-        <v>0.6943285493250814</v>
+        <v>0.6738540388839253</v>
       </c>
       <c r="S27">
-        <v>0.8666117940684491</v>
+        <v>0.8380164031540288</v>
       </c>
       <c r="T27">
-        <v>0.6695446869792325</v>
+        <v>0.6739487410029943</v>
       </c>
       <c r="U27">
-        <v>0.5355380632495476</v>
+        <v>0.5259745668452418</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -28629,58 +27979,58 @@
         <v>145</v>
       </c>
       <c r="D28">
-        <v>0.1980668671154977</v>
+        <v>0.1950981783701762</v>
       </c>
       <c r="E28">
-        <v>0.14023868554335</v>
+        <v>0.1382005882375978</v>
       </c>
       <c r="F28">
-        <v>0.1685889761878414</v>
+        <v>0.1687849392513117</v>
       </c>
       <c r="G28">
-        <v>0.1033765809873521</v>
+        <v>0.1014700978172069</v>
       </c>
       <c r="H28">
-        <v>0.1100402062558208</v>
+        <v>0.1088231029532194</v>
       </c>
       <c r="I28">
-        <v>0.1301650599691465</v>
+        <v>0.1335569717807183</v>
       </c>
       <c r="J28">
-        <v>0.1430433528024597</v>
+        <v>0.1354611569398402</v>
       </c>
       <c r="K28">
-        <v>0.1595222265314791</v>
+        <v>0.156070868618576</v>
       </c>
       <c r="L28">
-        <v>0.0892463155999505</v>
+        <v>0.08662611637692638</v>
       </c>
       <c r="M28">
-        <v>0.08931636773792519</v>
+        <v>0.0887490721102247</v>
       </c>
       <c r="N28">
-        <v>0.05768085123987456</v>
+        <v>0.06292580853617255</v>
       </c>
       <c r="O28">
-        <v>0.1568761177479394</v>
+        <v>0.1605847041196611</v>
       </c>
       <c r="P28">
-        <v>0.4959682446280662</v>
+        <v>0.4974591361062761</v>
       </c>
       <c r="Q28">
-        <v>0.6325460443419747</v>
+        <v>0.6447367898074486</v>
       </c>
       <c r="R28">
-        <v>0.6128901456543776</v>
+        <v>0.5948171084752496</v>
       </c>
       <c r="S28">
-        <v>0.6536069882908956</v>
+        <v>0.6320400681745293</v>
       </c>
       <c r="T28">
-        <v>0.7170153797677614</v>
+        <v>0.7217316810539565</v>
       </c>
       <c r="U28">
-        <v>0.6644649340042186</v>
+        <v>0.6525990958066906</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -28694,58 +28044,58 @@
         <v>146</v>
       </c>
       <c r="D29">
-        <v>0.1979966010850382</v>
+        <v>0.1950289655091682</v>
       </c>
       <c r="E29">
-        <v>0.1399382989751884</v>
+        <v>0.137904567205614</v>
       </c>
       <c r="F29">
-        <v>0.1692423769906341</v>
+        <v>0.1694390995487397</v>
       </c>
       <c r="G29">
-        <v>0.1058251053991568</v>
+        <v>0.1038734662513403</v>
       </c>
       <c r="H29">
-        <v>0.1111674579197238</v>
+        <v>0.109937886613202</v>
       </c>
       <c r="I29">
-        <v>0.1331699196956116</v>
+        <v>0.1366401337735575</v>
       </c>
       <c r="J29">
-        <v>0.1561427249480105</v>
+        <v>0.1478661801111882</v>
       </c>
       <c r="K29">
-        <v>0.1673019742552681</v>
+        <v>0.1636822968896423</v>
       </c>
       <c r="L29">
-        <v>0.09638405533445613</v>
+        <v>0.0935542978794672</v>
       </c>
       <c r="M29">
-        <v>0.09327749945455968</v>
+        <v>0.09268504457821861</v>
       </c>
       <c r="N29">
-        <v>0.06071206943628526</v>
+        <v>0.06623265737350113</v>
       </c>
       <c r="O29">
-        <v>0.1638069328063143</v>
+        <v>0.167679365190032</v>
       </c>
       <c r="P29">
-        <v>0.5210115043409315</v>
+        <v>0.5225776764099793</v>
       </c>
       <c r="Q29">
-        <v>0.642674459129782</v>
+        <v>0.6550604044984906</v>
       </c>
       <c r="R29">
-        <v>0.6358107026623273</v>
+        <v>0.6170617791405845</v>
       </c>
       <c r="S29">
-        <v>0.6662082149589783</v>
+        <v>0.6442254950519314</v>
       </c>
       <c r="T29">
-        <v>0.714550090201639</v>
+        <v>0.7192501755897103</v>
       </c>
       <c r="U29">
-        <v>0.6674397083672086</v>
+        <v>0.6555207474397079</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -28759,58 +28109,58 @@
         <v>147</v>
       </c>
       <c r="D30">
-        <v>0.2187144584613373</v>
+        <v>0.2154362970973034</v>
       </c>
       <c r="E30">
-        <v>0.1530372766616498</v>
+        <v>0.1508131766564673</v>
       </c>
       <c r="F30">
-        <v>0.1881095137973703</v>
+        <v>0.1883281669823245</v>
       </c>
       <c r="G30">
-        <v>0.1174649802801578</v>
+        <v>0.1152986771789461</v>
       </c>
       <c r="H30">
-        <v>0.1358409240624219</v>
+        <v>0.1343384510761352</v>
       </c>
       <c r="I30">
-        <v>0.1849671648343608</v>
+        <v>0.1897871396517451</v>
       </c>
       <c r="J30">
-        <v>0.2192435896160237</v>
+        <v>0.2076223027437275</v>
       </c>
       <c r="K30">
-        <v>0.2444770716752544</v>
+        <v>0.2391876653386192</v>
       </c>
       <c r="L30">
-        <v>0.1464356313086794</v>
+        <v>0.1421364003006683</v>
       </c>
       <c r="M30">
-        <v>0.1333457515344368</v>
+        <v>0.1324988019356815</v>
       </c>
       <c r="N30">
-        <v>0.09397148743577227</v>
+        <v>0.1025163758705932</v>
       </c>
       <c r="O30">
-        <v>0.2737715506780848</v>
+        <v>0.2802435711257174</v>
       </c>
       <c r="P30">
-        <v>0.800616357407509</v>
+        <v>0.803023027829462</v>
       </c>
       <c r="Q30">
-        <v>0.8800085788584756</v>
+        <v>0.8969685467347386</v>
       </c>
       <c r="R30">
-        <v>0.8724270394280531</v>
+        <v>0.846700722189219</v>
       </c>
       <c r="S30">
-        <v>0.8145766402039137</v>
+        <v>0.7876982413454899</v>
       </c>
       <c r="T30">
-        <v>0.8958076763480874</v>
+        <v>0.9017000170361106</v>
       </c>
       <c r="U30">
-        <v>0.842314479358288</v>
+        <v>0.8272726512466527</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -28824,58 +28174,58 @@
         <v>148</v>
       </c>
       <c r="D31">
-        <v>0.1332725995163083</v>
+        <v>0.1312750677130052</v>
       </c>
       <c r="E31">
-        <v>0.1030463319739956</v>
+        <v>0.1015487533939474</v>
       </c>
       <c r="F31">
-        <v>0.1463124855386659</v>
+        <v>0.1464825550386916</v>
       </c>
       <c r="G31">
-        <v>0.07376798585611315</v>
+        <v>0.07240754790984952</v>
       </c>
       <c r="H31">
-        <v>0.08284135565499852</v>
+        <v>0.08192508612961001</v>
       </c>
       <c r="I31">
-        <v>0.1029615673075164</v>
+        <v>0.1056445957359679</v>
       </c>
       <c r="J31">
-        <v>0.101048745783624</v>
+        <v>0.09569252777563628</v>
       </c>
       <c r="K31">
-        <v>0.136183906772305</v>
+        <v>0.1332374872390001</v>
       </c>
       <c r="L31">
-        <v>0.1216450297640258</v>
+        <v>0.1180736306499024</v>
       </c>
       <c r="M31">
-        <v>0.136697636699695</v>
+        <v>0.1358293975003103</v>
       </c>
       <c r="N31">
-        <v>0.1454190420241769</v>
+        <v>0.1586420900390805</v>
       </c>
       <c r="O31">
-        <v>0.2045044697472225</v>
+        <v>0.2093390009706387</v>
       </c>
       <c r="P31">
-        <v>0.3700393451451881</v>
+        <v>0.3711516915751356</v>
       </c>
       <c r="Q31">
-        <v>0.4936768451247956</v>
+        <v>0.5031912335474997</v>
       </c>
       <c r="R31">
-        <v>0.4151870031478419</v>
+        <v>0.4029438789968245</v>
       </c>
       <c r="S31">
-        <v>0.4299354804449991</v>
+        <v>0.4157489978521568</v>
       </c>
       <c r="T31">
-        <v>0.5496930037700514</v>
+        <v>0.5533087111786328</v>
       </c>
       <c r="U31">
-        <v>0.4806620933569617</v>
+        <v>0.4720785574386877</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -28889,58 +28239,58 @@
         <v>149</v>
       </c>
       <c r="D32">
-        <v>0.1516259232629583</v>
+        <v>0.1493533060481505</v>
       </c>
       <c r="E32">
-        <v>0.1584448593928569</v>
+        <v>0.1561421706605168</v>
       </c>
       <c r="F32">
-        <v>0.2454578835648824</v>
+        <v>0.2457431968748269</v>
       </c>
       <c r="G32">
-        <v>0.07737086903304774</v>
+        <v>0.0759439862878246</v>
       </c>
       <c r="H32">
-        <v>0.1593099061854031</v>
+        <v>0.1575478537542708</v>
       </c>
       <c r="I32">
-        <v>0.2485472649557015</v>
+        <v>0.2550240445456846</v>
       </c>
       <c r="J32">
-        <v>0.1692848827374852</v>
+        <v>0.1603117210186827</v>
       </c>
       <c r="K32">
-        <v>0.1456747372892312</v>
+        <v>0.1425229780128895</v>
       </c>
       <c r="L32">
-        <v>0.1357926008169634</v>
+        <v>0.1318058405259512</v>
       </c>
       <c r="M32">
-        <v>0.1466771363765473</v>
+        <v>0.1457455120812759</v>
       </c>
       <c r="N32">
-        <v>0.1452481817655284</v>
+        <v>0.1584556933460524</v>
       </c>
       <c r="O32">
-        <v>0.3252890743522506</v>
+        <v>0.3329789805363841</v>
       </c>
       <c r="P32">
-        <v>0.4155116614223095</v>
+        <v>0.4167606986375367</v>
       </c>
       <c r="Q32">
-        <v>0.4567593362108255</v>
+        <v>0.4655622318364199</v>
       </c>
       <c r="R32">
-        <v>0.4016427466254068</v>
+        <v>0.3897990184402558</v>
       </c>
       <c r="S32">
-        <v>0.4124663462814964</v>
+        <v>0.3988562887082084</v>
       </c>
       <c r="T32">
-        <v>0.5067823200349711</v>
+        <v>0.5101157744841296</v>
       </c>
       <c r="U32">
-        <v>0.4856188017728756</v>
+        <v>0.4769467502730477</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -28954,58 +28304,58 @@
         <v>150</v>
       </c>
       <c r="D33">
-        <v>0.1522517811621674</v>
+        <v>0.1499697833915473</v>
       </c>
       <c r="E33">
-        <v>0.1692600248552711</v>
+        <v>0.1668001586686158</v>
       </c>
       <c r="F33">
-        <v>0.2700688108004789</v>
+        <v>0.2703827311570108</v>
       </c>
       <c r="G33">
-        <v>0.0796344349245206</v>
+        <v>0.07816580722859984</v>
       </c>
       <c r="H33">
-        <v>0.1717437475864889</v>
+        <v>0.1698441702456149</v>
       </c>
       <c r="I33">
-        <v>0.2460960603898757</v>
+        <v>0.2525089651602922</v>
       </c>
       <c r="J33">
-        <v>0.2157620322185849</v>
+        <v>0.2043252897489271</v>
       </c>
       <c r="K33">
-        <v>0.1736430457827765</v>
+        <v>0.1698861755765754</v>
       </c>
       <c r="L33">
-        <v>0.08462998458347243</v>
+        <v>0.08214531708364928</v>
       </c>
       <c r="M33">
-        <v>0.1200915516439366</v>
+        <v>0.1193287864991282</v>
       </c>
       <c r="N33">
-        <v>0.3249509759306299</v>
+        <v>0.3544989793929695</v>
       </c>
       <c r="O33">
-        <v>0.3202175944882036</v>
+        <v>0.3277876097585494</v>
       </c>
       <c r="P33">
-        <v>0.3809183525903467</v>
+        <v>0.3820634015565292</v>
       </c>
       <c r="Q33">
-        <v>0.4643199914211415</v>
+        <v>0.4732685997961011</v>
       </c>
       <c r="R33">
-        <v>0.3940319052446247</v>
+        <v>0.3824126071962847</v>
       </c>
       <c r="S33">
-        <v>0.4173326607014842</v>
+        <v>0.4035620304656678</v>
       </c>
       <c r="T33">
-        <v>0.5023421360369417</v>
+        <v>0.5056463843545558</v>
       </c>
       <c r="U33">
-        <v>0.4925611908089213</v>
+        <v>0.4837651639707567</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -29019,58 +28369,58 @@
         <v>151</v>
       </c>
       <c r="D34">
-        <v>0.1710920648408393</v>
+        <v>0.1685276829494922</v>
       </c>
       <c r="E34">
-        <v>0.1143423657471882</v>
+        <v>0.1126806212245569</v>
       </c>
       <c r="F34">
-        <v>0.1529908554067785</v>
+        <v>0.1531686876552824</v>
       </c>
       <c r="G34">
-        <v>0.08203617571059431</v>
+        <v>0.08052325482617798</v>
       </c>
       <c r="H34">
-        <v>0.08874735933489313</v>
+        <v>0.08776576626251613</v>
       </c>
       <c r="I34">
-        <v>0.1228108365192895</v>
+        <v>0.1260111079829029</v>
       </c>
       <c r="J34">
-        <v>0.1256803414891394</v>
+        <v>0.1190184942478521</v>
       </c>
       <c r="K34">
-        <v>0.1284429423606109</v>
+        <v>0.1256640031800863</v>
       </c>
       <c r="L34">
-        <v>0.07347419513347862</v>
+        <v>0.07131705253653348</v>
       </c>
       <c r="M34">
-        <v>0.08207960958822343</v>
+        <v>0.08155827845013473</v>
       </c>
       <c r="N34">
-        <v>0.1152764792030383</v>
+        <v>0.1257586443876871</v>
       </c>
       <c r="O34">
-        <v>0.1724278263077262</v>
+        <v>0.1765040585343414</v>
       </c>
       <c r="P34">
-        <v>0.4789456099494847</v>
+        <v>0.4803853310125443</v>
       </c>
       <c r="Q34">
-        <v>0.4921739363555938</v>
+        <v>0.5016593599647052</v>
       </c>
       <c r="R34">
-        <v>0.532571093208131</v>
+        <v>0.516866521620016</v>
       </c>
       <c r="S34">
-        <v>0.5798582162865412</v>
+        <v>0.5607247675115036</v>
       </c>
       <c r="T34">
-        <v>0.5336630741339866</v>
+        <v>0.5371733417153434</v>
       </c>
       <c r="U34">
-        <v>0.5391722334411095</v>
+        <v>0.5295438389913711</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -29084,58 +28434,58 @@
         <v>152</v>
       </c>
       <c r="D35">
-        <v>0.1716484737564547</v>
+        <v>0.1690757522325904</v>
       </c>
       <c r="E35">
-        <v>0.1150030912962836</v>
+        <v>0.1133317444092531</v>
       </c>
       <c r="F35">
-        <v>0.1544852771043128</v>
+        <v>0.1546648464263821</v>
       </c>
       <c r="G35">
-        <v>0.08189745682034544</v>
+        <v>0.0803870942061593</v>
       </c>
       <c r="H35">
-        <v>0.08936919337618972</v>
+        <v>0.08838072248804807</v>
       </c>
       <c r="I35">
-        <v>0.125538868665435</v>
+        <v>0.1288102286720187</v>
       </c>
       <c r="J35">
-        <v>0.1261589436921026</v>
+        <v>0.1194717275289321</v>
       </c>
       <c r="K35">
-        <v>0.1285592922968955</v>
+        <v>0.1257778358165438</v>
       </c>
       <c r="L35">
-        <v>0.07185002081793869</v>
+        <v>0.06974056265761175</v>
       </c>
       <c r="M35">
-        <v>0.08211768749768446</v>
+        <v>0.08159611450659505</v>
       </c>
       <c r="N35">
-        <v>0.1133552321300027</v>
+        <v>0.1236626970694731</v>
       </c>
       <c r="O35">
-        <v>0.1741614634735219</v>
+        <v>0.1782786792689484</v>
       </c>
       <c r="P35">
-        <v>0.4801588765938773</v>
+        <v>0.4816022447632195</v>
       </c>
       <c r="Q35">
-        <v>0.4958875097182381</v>
+        <v>0.5054445031807007</v>
       </c>
       <c r="R35">
-        <v>0.5339059915701863</v>
+        <v>0.5181620562104413</v>
       </c>
       <c r="S35">
-        <v>0.586660648381701</v>
+        <v>0.5673027413125791</v>
       </c>
       <c r="T35">
-        <v>0.5379789951115815</v>
+        <v>0.541517651461481</v>
       </c>
       <c r="U35">
-        <v>0.5424804522855933</v>
+        <v>0.5327929805429509</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -29149,58 +28499,58 @@
         <v>153</v>
       </c>
       <c r="D36">
-        <v>0.1729696385384666</v>
+        <v>0.1703771149796825</v>
       </c>
       <c r="E36">
-        <v>0.1165050241370912</v>
+        <v>0.1148118495691721</v>
       </c>
       <c r="F36">
-        <v>0.1578478516744968</v>
+        <v>0.1580313295582575</v>
       </c>
       <c r="G36">
-        <v>0.08411478308173535</v>
+        <v>0.08256352827359498</v>
       </c>
       <c r="H36">
-        <v>0.09103991095563682</v>
+        <v>0.09003296104102979</v>
       </c>
       <c r="I36">
-        <v>0.1269626404717044</v>
+        <v>0.130271101897116</v>
       </c>
       <c r="J36">
-        <v>0.1250276116655556</v>
+        <v>0.1184003632033854</v>
       </c>
       <c r="K36">
-        <v>0.1310100282564131</v>
+        <v>0.1281755486511325</v>
       </c>
       <c r="L36">
-        <v>0.0743290434626046</v>
+        <v>0.0721468032141461</v>
       </c>
       <c r="M36">
-        <v>0.08318417770239953</v>
+        <v>0.0826558308663202</v>
       </c>
       <c r="N36">
-        <v>0.1209119718018517</v>
+        <v>0.13190657599163</v>
       </c>
       <c r="O36">
-        <v>0.1786828588958735</v>
+        <v>0.1829069614863407</v>
       </c>
       <c r="P36">
-        <v>0.4834067210882997</v>
+        <v>0.4848598523497989</v>
       </c>
       <c r="Q36">
-        <v>0.491466180531353</v>
+        <v>0.5009379639142989</v>
       </c>
       <c r="R36">
-        <v>0.5323128634690284</v>
+        <v>0.5166159066153134</v>
       </c>
       <c r="S36">
-        <v>0.5705015532485463</v>
+        <v>0.5516768441410937</v>
       </c>
       <c r="T36">
-        <v>0.5334167670756252</v>
+        <v>0.5369254145267464</v>
       </c>
       <c r="U36">
-        <v>0.5385128376125374</v>
+        <v>0.528896218478259</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -29214,58 +28564,58 @@
         <v>154</v>
       </c>
       <c r="D37">
-        <v>0.1469679390809857</v>
+        <v>0.1447651372038883</v>
       </c>
       <c r="E37">
-        <v>0.1038875392657078</v>
+        <v>0.1023777353691702</v>
       </c>
       <c r="F37">
-        <v>0.1489743770308743</v>
+        <v>0.1491475406383751</v>
       </c>
       <c r="G37">
-        <v>0.09071997824017408</v>
+        <v>0.08904690963934668</v>
       </c>
       <c r="H37">
-        <v>0.1093411398587102</v>
+        <v>0.1081317686028726</v>
       </c>
       <c r="I37">
-        <v>0.135305272528826</v>
+        <v>0.1388311307903844</v>
       </c>
       <c r="J37">
-        <v>0.1729843484144436</v>
+        <v>0.1638150917859499</v>
       </c>
       <c r="K37">
-        <v>0.1569939239477718</v>
+        <v>0.1535972673596823</v>
       </c>
       <c r="L37">
-        <v>0.0763808294917047</v>
+        <v>0.07413835047458534</v>
       </c>
       <c r="M37">
-        <v>0.07050083771400814</v>
+        <v>0.07005304949783558</v>
       </c>
       <c r="N37">
-        <v>0.07441729618812004</v>
+        <v>0.08118410930239713</v>
       </c>
       <c r="O37">
-        <v>0.2071677745101821</v>
+        <v>0.2120652668515138</v>
       </c>
       <c r="P37">
-        <v>0.4456438591154573</v>
+        <v>0.4469834743812896</v>
       </c>
       <c r="Q37">
-        <v>0.6815366880244498</v>
+        <v>0.6946716058117095</v>
       </c>
       <c r="R37">
-        <v>0.7557274715893934</v>
+        <v>0.7334424164483279</v>
       </c>
       <c r="S37">
-        <v>0.8747205480179486</v>
+        <v>0.8458575944063647</v>
       </c>
       <c r="T37">
-        <v>0.7686799494959582</v>
+        <v>0.7737360840458954</v>
       </c>
       <c r="U37">
-        <v>0.5725616403969862</v>
+        <v>0.562336986791686</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -29279,58 +28629,58 @@
         <v>155</v>
       </c>
       <c r="D38">
-        <v>0.1496102686450095</v>
+        <v>0.1473678626980725</v>
       </c>
       <c r="E38">
-        <v>0.1056299062619046</v>
+        <v>0.1040947804403445</v>
       </c>
       <c r="F38">
-        <v>0.1513098196231502</v>
+        <v>0.1514856978831466</v>
       </c>
       <c r="G38">
-        <v>0.09159798721610227</v>
+        <v>0.08990872626958248</v>
       </c>
       <c r="H38">
-        <v>0.1095739726960907</v>
+        <v>0.1083620261850352</v>
       </c>
       <c r="I38">
-        <v>0.1366497765257529</v>
+        <v>0.1402106706025213</v>
       </c>
       <c r="J38">
-        <v>0.173375389299609</v>
+        <v>0.1641854050488697</v>
       </c>
       <c r="K38">
-        <v>0.1570714905719615</v>
+        <v>0.1536731557839874</v>
       </c>
       <c r="L38">
-        <v>0.07556874233393474</v>
+        <v>0.07335010553512447</v>
       </c>
       <c r="M38">
-        <v>0.07099605636353908</v>
+        <v>0.07054512275104387</v>
       </c>
       <c r="N38">
-        <v>0.07689373567545653</v>
+        <v>0.08388573304202437</v>
       </c>
       <c r="O38">
-        <v>0.2054764515322092</v>
+        <v>0.2103339606215562</v>
       </c>
       <c r="P38">
-        <v>0.4468566270888084</v>
+        <v>0.4481998879619071</v>
       </c>
       <c r="Q38">
-        <v>0.6742875526125305</v>
+        <v>0.6872827614166388</v>
       </c>
       <c r="R38">
-        <v>0.7528037133863309</v>
+        <v>0.7306048746595467</v>
       </c>
       <c r="S38">
-        <v>0.8674826753046757</v>
+        <v>0.8388585481215357</v>
       </c>
       <c r="T38">
-        <v>0.7694210896535503</v>
+        <v>0.7744820991899622</v>
       </c>
       <c r="U38">
-        <v>0.5752067168456901</v>
+        <v>0.5649348281681471</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -29344,58 +28694,58 @@
         <v>156</v>
       </c>
       <c r="D39">
-        <v>0.1514175763121773</v>
+        <v>0.1491480818672548</v>
       </c>
       <c r="E39">
-        <v>0.1072523684325567</v>
+        <v>0.1056936632700617</v>
       </c>
       <c r="F39">
-        <v>0.1519632204259429</v>
+        <v>0.1521398581805746</v>
       </c>
       <c r="G39">
-        <v>0.09312226302189582</v>
+        <v>0.09140489120014056</v>
       </c>
       <c r="H39">
-        <v>0.1109340571973741</v>
+        <v>0.1097070674271804</v>
       </c>
       <c r="I39">
-        <v>0.1389034213206017</v>
+        <v>0.1425230420971508</v>
       </c>
       <c r="J39">
-        <v>0.1762917781912618</v>
+        <v>0.1669472070173636</v>
       </c>
       <c r="K39">
-        <v>0.159094686686243</v>
+        <v>0.1556525788512759</v>
       </c>
       <c r="L39">
-        <v>0.07680806610727052</v>
+        <v>0.07455304377068046</v>
       </c>
       <c r="M39">
-        <v>0.07213870238717618</v>
+        <v>0.07168051122368965</v>
       </c>
       <c r="N39">
-        <v>0.07838803895448415</v>
+        <v>0.08551591428952414</v>
       </c>
       <c r="O39">
-        <v>0.2089424813288646</v>
+        <v>0.2138819281347512</v>
       </c>
       <c r="P39">
-        <v>0.4587140271177312</v>
+        <v>0.4600929315967429</v>
       </c>
       <c r="Q39">
-        <v>0.6882550065681885</v>
+        <v>0.7015194031689754</v>
       </c>
       <c r="R39">
-        <v>0.7625673584804994</v>
+        <v>0.7400806072753667</v>
       </c>
       <c r="S39">
-        <v>0.8728460292594854</v>
+        <v>0.844044928714109</v>
       </c>
       <c r="T39">
-        <v>0.7822445895659005</v>
+        <v>0.7873899480449387</v>
       </c>
       <c r="U39">
-        <v>0.5874392587791436</v>
+        <v>0.5769489246187787</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -29409,58 +28759,58 @@
         <v>157</v>
       </c>
       <c r="D40">
-        <v>0.1492622066801751</v>
+        <v>0.1470250175958701</v>
       </c>
       <c r="E40">
-        <v>0.1061707269854553</v>
+        <v>0.1046277413835836</v>
       </c>
       <c r="F40">
-        <v>0.159015321469171</v>
+        <v>0.1592001563868414</v>
       </c>
       <c r="G40">
-        <v>0.09090493676050591</v>
+        <v>0.0892284571327049</v>
       </c>
       <c r="H40">
-        <v>0.1106620402971174</v>
+        <v>0.1094380591787514</v>
       </c>
       <c r="I40">
-        <v>0.1386265937402821</v>
+        <v>0.1422390007934273</v>
       </c>
       <c r="J40">
-        <v>0.1738112058586481</v>
+        <v>0.1645981205938033</v>
       </c>
       <c r="K40">
-        <v>0.1591722533104327</v>
+        <v>0.1557284672755809</v>
       </c>
       <c r="L40">
-        <v>0.07685082727862655</v>
+        <v>0.07459454950883221</v>
       </c>
       <c r="M40">
-        <v>0.0721766773833684</v>
+        <v>0.07171824502053792</v>
       </c>
       <c r="N40">
-        <v>0.07979670525157415</v>
+        <v>0.08705267152865391</v>
       </c>
       <c r="O40">
-        <v>0.207801242792587</v>
+        <v>0.212713710465236</v>
       </c>
       <c r="P40">
-        <v>0.4548009554537158</v>
+        <v>0.456168097153032</v>
       </c>
       <c r="Q40">
-        <v>0.6739765689927883</v>
+        <v>0.6869657843641876</v>
       </c>
       <c r="R40">
-        <v>0.7615323053940137</v>
+        <v>0.7390760760581705</v>
       </c>
       <c r="S40">
-        <v>0.8672330934869765</v>
+        <v>0.838617201697921</v>
       </c>
       <c r="T40">
-        <v>0.7662146599298358</v>
+        <v>0.7712545785816493</v>
       </c>
       <c r="U40">
-        <v>0.5814897100531637</v>
+        <v>0.5711056213527441</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -29474,58 +28824,58 @@
         <v>158</v>
       </c>
       <c r="D41">
-        <v>0.2223985227792666</v>
+        <v>0.2190651434959666</v>
       </c>
       <c r="E41">
-        <v>0.1658951956884223</v>
+        <v>0.1634842307677244</v>
       </c>
       <c r="F41">
-        <v>0.2143084212750118</v>
+        <v>0.2145575273299282</v>
       </c>
       <c r="G41">
-        <v>0.1315071399428804</v>
+        <v>0.1290818696673457</v>
       </c>
       <c r="H41">
-        <v>0.1454773641051268</v>
+        <v>0.1438683069583739</v>
       </c>
       <c r="I41">
-        <v>0.1861927671172737</v>
+        <v>0.1910446793444413</v>
       </c>
       <c r="J41">
-        <v>0.1866051084068815</v>
+        <v>0.1767138659745244</v>
       </c>
       <c r="K41">
-        <v>0.20550076643212</v>
+        <v>0.2010546355589831</v>
       </c>
       <c r="L41">
-        <v>0.1320314932276057</v>
+        <v>0.1281551559957091</v>
       </c>
       <c r="M41">
-        <v>0.1275568801636733</v>
+        <v>0.1267466987575922</v>
       </c>
       <c r="N41">
-        <v>0.147297677458857</v>
+        <v>0.1606915510149654</v>
       </c>
       <c r="O41">
-        <v>0.2686590011611511</v>
+        <v>0.2750101597992523</v>
       </c>
       <c r="P41">
-        <v>0.6195489021757018</v>
+        <v>0.6214112798351439</v>
       </c>
       <c r="Q41">
-        <v>0.7922468566526366</v>
+        <v>0.8075154364843566</v>
       </c>
       <c r="R41">
-        <v>0.7816998346049191</v>
+        <v>0.758648900805602</v>
       </c>
       <c r="S41">
-        <v>0.7523086318137164</v>
+        <v>0.7274848761687445</v>
       </c>
       <c r="T41">
-        <v>0.8447599837570481</v>
+        <v>0.850316548804802</v>
       </c>
       <c r="U41">
-        <v>0.7305806055201921</v>
+        <v>0.7175340912322017</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -29539,58 +28889,58 @@
         <v>159</v>
       </c>
       <c r="D42">
-        <v>0.2212865219949016</v>
+        <v>0.2179698097304796</v>
       </c>
       <c r="E42">
-        <v>0.1648735066540933</v>
+        <v>0.1624773900019749</v>
       </c>
       <c r="F42">
-        <v>0.2099187147269198</v>
+        <v>0.2101627183109489</v>
       </c>
       <c r="G42">
-        <v>0.1297059703522372</v>
+        <v>0.1273139174599661</v>
       </c>
       <c r="H42">
-        <v>0.1454773641051268</v>
+        <v>0.1438683069583739</v>
       </c>
       <c r="I42">
-        <v>0.1821202309742014</v>
+        <v>0.1868660188431886</v>
       </c>
       <c r="J42">
-        <v>0.1866051084068815</v>
+        <v>0.1767138659745244</v>
       </c>
       <c r="K42">
-        <v>0.2057731730289767</v>
+        <v>0.2013211484776732</v>
       </c>
       <c r="L42">
-        <v>0.1312190309718414</v>
+        <v>0.1273665469708258</v>
       </c>
       <c r="M42">
-        <v>0.1264896695660765</v>
+        <v>0.1256862665805827</v>
       </c>
       <c r="N42">
-        <v>0.1412774389991643</v>
+        <v>0.1541238883589254</v>
       </c>
       <c r="O42">
-        <v>0.2681512309072784</v>
+        <v>0.2744903857434593</v>
       </c>
       <c r="P42">
-        <v>0.6255379413862058</v>
+        <v>0.6274183222295581</v>
       </c>
       <c r="Q42">
-        <v>0.802723787566017</v>
+        <v>0.8181942840790076</v>
       </c>
       <c r="R42">
-        <v>0.7817851998079283</v>
+        <v>0.7587317487410409</v>
       </c>
       <c r="S42">
-        <v>0.7651010275336537</v>
+        <v>0.7398551641365749</v>
       </c>
       <c r="T42">
-        <v>0.8585709308853519</v>
+        <v>0.8642183399924422</v>
       </c>
       <c r="U42">
-        <v>0.738512088299096</v>
+        <v>0.725323935699579</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -29604,58 +28954,58 @@
         <v>160</v>
       </c>
       <c r="D43">
-        <v>0.2209392770769331</v>
+        <v>0.2176277694289867</v>
       </c>
       <c r="E43">
-        <v>0.1652944225520993</v>
+        <v>0.1628921887037568</v>
       </c>
       <c r="F43">
-        <v>0.2137480760138024</v>
+        <v>0.2139965307392162</v>
       </c>
       <c r="G43">
-        <v>0.1315996192030464</v>
+        <v>0.1291726434140249</v>
       </c>
       <c r="H43">
-        <v>0.1460213979056402</v>
+        <v>0.144406323455232</v>
       </c>
       <c r="I43">
-        <v>0.1874976372095292</v>
+        <v>0.192383552450098</v>
       </c>
       <c r="J43">
-        <v>0.1883463846130884</v>
+        <v>0.1783628436083914</v>
       </c>
       <c r="K43">
-        <v>0.2065506860952592</v>
+        <v>0.2020818395879685</v>
       </c>
       <c r="L43">
-        <v>0.1316466426854015</v>
+        <v>0.1277816043523433</v>
       </c>
       <c r="M43">
-        <v>0.1266810882460697</v>
+        <v>0.1258764694590048</v>
       </c>
       <c r="N43">
-        <v>0.1439673503835047</v>
+        <v>0.1570583951339098</v>
       </c>
       <c r="O43">
-        <v>0.2689539559409742</v>
+        <v>0.2753120873757791</v>
       </c>
       <c r="P43">
-        <v>0.6216632673923993</v>
+        <v>0.6235320008802993</v>
       </c>
       <c r="Q43">
-        <v>0.7976408139191978</v>
+        <v>0.8130133488079078</v>
       </c>
       <c r="R43">
-        <v>0.7853545323587472</v>
+        <v>0.7621958280415784</v>
       </c>
       <c r="S43">
-        <v>0.762605209356663</v>
+        <v>0.737441699900427</v>
       </c>
       <c r="T43">
-        <v>0.8462400450897246</v>
+        <v>0.8518063455146599</v>
       </c>
       <c r="U43">
-        <v>0.7269426887614223</v>
+        <v>0.7139611394240659</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -29669,58 +29019,58 @@
         <v>161</v>
       </c>
       <c r="D44">
-        <v>0.2221207268448918</v>
+        <v>0.2187915112547722</v>
       </c>
       <c r="E44">
-        <v>0.1649940359839377</v>
+        <v>0.162596167671773</v>
       </c>
       <c r="F44">
-        <v>0.2107124533464785</v>
+        <v>0.2109573795498568</v>
       </c>
       <c r="G44">
-        <v>0.1314609003127975</v>
+        <v>0.1290364827940062</v>
       </c>
       <c r="H44">
-        <v>0.1462934148058969</v>
+        <v>0.1446753317036611</v>
       </c>
       <c r="I44">
-        <v>0.1859165492893336</v>
+        <v>0.190761263682356</v>
       </c>
       <c r="J44">
-        <v>0.188607078536532</v>
+        <v>0.1786097191170047</v>
       </c>
       <c r="K44">
-        <v>0.2070567159768778</v>
+        <v>0.2025769212131963</v>
       </c>
       <c r="L44">
-        <v>0.1321594016436794</v>
+        <v>0.1282793091247419</v>
       </c>
       <c r="M44">
-        <v>0.1275949580731343</v>
+        <v>0.1267845348140525</v>
       </c>
       <c r="N44">
-        <v>0.1422169635691177</v>
+        <v>0.1551488445087238</v>
       </c>
       <c r="O44">
-        <v>0.2708556053231249</v>
+        <v>0.2772586921729648</v>
       </c>
       <c r="P44">
-        <v>0.6267497120174734</v>
+        <v>0.6286337354700597</v>
       </c>
       <c r="Q44">
-        <v>0.8029865151068336</v>
+        <v>0.818462075037113</v>
       </c>
       <c r="R44">
-        <v>0.782601504561703</v>
+        <v>0.759523982123675</v>
       </c>
       <c r="S44">
-        <v>0.7601093911796724</v>
+        <v>0.7350282356642791</v>
       </c>
       <c r="T44">
-        <v>0.8561034223367218</v>
+        <v>0.8617346009499205</v>
       </c>
       <c r="U44">
-        <v>0.73751924798903</v>
+        <v>0.7243488252679045</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -29734,58 +29084,58 @@
         <v>162</v>
       </c>
       <c r="D45">
-        <v>0.196050395450683</v>
+        <v>0.1931119302193887</v>
       </c>
       <c r="E45">
-        <v>0.1724443722795032</v>
+        <v>0.1699382277789806</v>
       </c>
       <c r="F45">
-        <v>0.219912879892961</v>
+        <v>0.2201685004122551</v>
       </c>
       <c r="G45">
-        <v>0.1391753025975792</v>
+        <v>0.1366086151566915</v>
       </c>
       <c r="H45">
-        <v>0.1626519092292665</v>
+        <v>0.1608528924640931</v>
       </c>
       <c r="I45">
-        <v>0.1978176962335596</v>
+        <v>0.2029725371759105</v>
       </c>
       <c r="J45">
-        <v>0.2315598849762689</v>
+        <v>0.2192857571163022</v>
       </c>
       <c r="K45">
-        <v>0.221487801724934</v>
+        <v>0.2166957818684156</v>
       </c>
       <c r="L45">
-        <v>0.1650284886926709</v>
+        <v>0.1601833865173872</v>
       </c>
       <c r="M45">
-        <v>0.1593601676251322</v>
+        <v>0.1583479866709244</v>
       </c>
       <c r="N45">
-        <v>0.1379045002854566</v>
+        <v>0.1504442461355407</v>
       </c>
       <c r="O45">
-        <v>0.2627835517284723</v>
+        <v>0.2689958134330787</v>
       </c>
       <c r="P45">
-        <v>0.6339505218592451</v>
+        <v>0.6358561911049756</v>
       </c>
       <c r="Q45">
-        <v>0.8263746280260582</v>
+        <v>0.842300935430085</v>
       </c>
       <c r="R45">
-        <v>0.7947713813156911</v>
+        <v>0.7713349909196779</v>
       </c>
       <c r="S45">
-        <v>0.8232482808060961</v>
+        <v>0.7960837458085314</v>
       </c>
       <c r="T45">
-        <v>0.875339781696501</v>
+        <v>0.8810974910215229</v>
       </c>
       <c r="U45">
-        <v>0.7695861167205548</v>
+        <v>0.7558430523799887</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -29799,58 +29149,58 @@
         <v>163</v>
       </c>
       <c r="D46">
-        <v>0.1920182691679195</v>
+        <v>0.1891402387185232</v>
       </c>
       <c r="E46">
-        <v>0.1651745177265545</v>
+        <v>0.1627740264622996</v>
       </c>
       <c r="F46">
-        <v>0.2185582930092653</v>
+        <v>0.2188123389950314</v>
       </c>
       <c r="G46">
-        <v>0.142500747994016</v>
+        <v>0.1398727322946292</v>
       </c>
       <c r="H46">
-        <v>0.1607086068645935</v>
+        <v>0.1589310840588234</v>
       </c>
       <c r="I46">
-        <v>0.2020877921476089</v>
+        <v>0.2073539055679262</v>
       </c>
       <c r="J46">
-        <v>0.2395667704798957</v>
+        <v>0.2268682274132895</v>
       </c>
       <c r="K46">
-        <v>0.2323794485382385</v>
+        <v>0.2273517814479084</v>
       </c>
       <c r="L46">
-        <v>0.1737907778407109</v>
+        <v>0.1686884219842721</v>
       </c>
       <c r="M46">
-        <v>0.1579893628845354</v>
+        <v>0.1569858886383528</v>
       </c>
       <c r="N46">
-        <v>0.1406796349465079</v>
+        <v>0.1534717255951831</v>
       </c>
       <c r="O46">
-        <v>0.2622347118217129</v>
+        <v>0.2684339988286554</v>
       </c>
       <c r="P46">
-        <v>0.5918826327836317</v>
+        <v>0.5936618450273093</v>
       </c>
       <c r="Q46">
-        <v>0.8002466421811748</v>
+        <v>0.8156693979025855</v>
       </c>
       <c r="R46">
-        <v>0.788064877554287</v>
+        <v>0.7648262499917623</v>
       </c>
       <c r="S46">
-        <v>0.7959217268937684</v>
+        <v>0.7696588799378566</v>
       </c>
       <c r="T46">
-        <v>0.8585709308853519</v>
+        <v>0.8642183399924422</v>
       </c>
       <c r="U46">
-        <v>0.73751924798903</v>
+        <v>0.7243488252679045</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -29864,58 +29214,58 @@
         <v>164</v>
       </c>
       <c r="D47">
-        <v>0.1908360023530949</v>
+        <v>0.1879756920920283</v>
       </c>
       <c r="E47">
-        <v>0.13344907479688</v>
+        <v>0.1315096513150864</v>
       </c>
       <c r="F47">
-        <v>0.1528505175900124</v>
+        <v>0.1530281867138025</v>
       </c>
       <c r="G47">
-        <v>0.1595457636338909</v>
+        <v>0.1566034017340212</v>
       </c>
       <c r="H47">
-        <v>0.1594268904890625</v>
+        <v>0.157663544149211</v>
       </c>
       <c r="I47">
-        <v>0.1846507033493698</v>
+        <v>0.1894624316415414</v>
       </c>
       <c r="J47">
-        <v>0.2159361598392056</v>
+        <v>0.2044901875123138</v>
       </c>
       <c r="K47">
-        <v>0.2452933680536318</v>
+        <v>0.239986300661067</v>
       </c>
       <c r="L47">
-        <v>0.2061894920047862</v>
+        <v>0.2001359362572482</v>
       </c>
       <c r="M47">
-        <v>0.1910872992676692</v>
+        <v>0.1898736024713359</v>
       </c>
       <c r="N47">
-        <v>0.1325677028603579</v>
+        <v>0.1446221702516129</v>
       </c>
       <c r="O47">
-        <v>0.2353564908097318</v>
+        <v>0.240920370684141</v>
       </c>
       <c r="P47">
-        <v>0.6104331955339022</v>
+        <v>0.6122681711782006</v>
       </c>
       <c r="Q47">
-        <v>0.7245971957856358</v>
+        <v>0.7385619973330205</v>
       </c>
       <c r="R47">
-        <v>0.7451101744651337</v>
+        <v>0.7231382044781192</v>
       </c>
       <c r="S47">
-        <v>0.7219870960889998</v>
+        <v>0.6981638532146922</v>
       </c>
       <c r="T47">
-        <v>0.7653514757343168</v>
+        <v>0.7703857166324218</v>
       </c>
       <c r="U47">
-        <v>0.6492576177077752</v>
+        <v>0.6376633477230419</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -29929,58 +29279,58 @@
         <v>165</v>
       </c>
       <c r="D48">
-        <v>0.2198264592457023</v>
+        <v>0.2165316308627903</v>
       </c>
       <c r="E48">
-        <v>0.1549595008961637</v>
+        <v>0.1527074650898273</v>
       </c>
       <c r="F48">
-        <v>0.186288140196976</v>
+        <v>0.1865046762687089</v>
       </c>
       <c r="G48">
-        <v>0.1621324629402965</v>
+        <v>0.1591423968249576</v>
       </c>
       <c r="H48">
-        <v>0.1635451922858506</v>
+        <v>0.1617362953341952</v>
       </c>
       <c r="I48">
-        <v>0.1917683428759581</v>
+        <v>0.1967655464837518</v>
       </c>
       <c r="J48">
-        <v>0.2221599785076765</v>
+        <v>0.2103841047122214</v>
       </c>
       <c r="K48">
-        <v>0.2424926588730678</v>
+        <v>0.2372461864834831</v>
       </c>
       <c r="L48">
-        <v>0.1877673042082244</v>
+        <v>0.1822546089077139</v>
       </c>
       <c r="M48">
-        <v>0.1930303017828695</v>
+        <v>0.1918042639469328</v>
       </c>
       <c r="N48">
-        <v>0.1298782051812443</v>
+        <v>0.1416881148003405</v>
       </c>
       <c r="O48">
-        <v>0.2422026774924612</v>
+        <v>0.2479284027452131</v>
       </c>
       <c r="P48">
-        <v>0.6361396877321938</v>
+        <v>0.638051937658804</v>
       </c>
       <c r="Q48">
-        <v>0.7456904640626256</v>
+        <v>0.760061785683766</v>
       </c>
       <c r="R48">
-        <v>0.7746465347062904</v>
+        <v>0.751803590139966</v>
       </c>
       <c r="S48">
-        <v>0.7256033773199161</v>
+        <v>0.7016608088419619</v>
       </c>
       <c r="T48">
-        <v>0.7929711510084166</v>
+        <v>0.7981870654294266</v>
       </c>
       <c r="U48">
-        <v>0.7203299976396627</v>
+        <v>0.707466535982913</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -29994,58 +29344,58 @@
         <v>166</v>
       </c>
       <c r="D49">
-        <v>0.2249714033596967</v>
+        <v>0.2215994609298522</v>
       </c>
       <c r="E49">
-        <v>0.1562216240858818</v>
+        <v>0.1539512457668321</v>
       </c>
       <c r="F49">
-        <v>0.1883429071557197</v>
+        <v>0.1885618316305205</v>
       </c>
       <c r="G49">
-        <v>0.1667515299877601</v>
+        <v>0.1636762784899714</v>
       </c>
       <c r="H49">
-        <v>0.1663039774663244</v>
+        <v>0.1644645668808931</v>
       </c>
       <c r="I49">
-        <v>0.1940219876708069</v>
+        <v>0.1990779179783812</v>
       </c>
       <c r="J49">
-        <v>0.2278604192993104</v>
+        <v>0.2157823863490351</v>
       </c>
       <c r="K49">
-        <v>0.2448658282083957</v>
+        <v>0.2395680108937668</v>
       </c>
       <c r="L49">
-        <v>0.1875538734494387</v>
+        <v>0.1820474443023776</v>
       </c>
       <c r="M49">
-        <v>0.1977529916887244</v>
+        <v>0.1964969575441332</v>
       </c>
       <c r="N49">
-        <v>0.1312442598399788</v>
+        <v>0.1431783856971412</v>
       </c>
       <c r="O49">
-        <v>0.2495566344290634</v>
+        <v>0.2554562088620781</v>
       </c>
       <c r="P49">
-        <v>0.6405230061885077</v>
+        <v>0.6424484324670388</v>
       </c>
       <c r="Q49">
-        <v>0.7560762446047024</v>
+        <v>0.7706477262113193</v>
       </c>
       <c r="R49">
-        <v>0.789740169663341</v>
+        <v>0.76645214072475</v>
       </c>
       <c r="S49">
-        <v>0.7523086318137164</v>
+        <v>0.7274848761687445</v>
       </c>
       <c r="T49">
-        <v>0.8049314667252478</v>
+        <v>0.8102260523351755</v>
       </c>
       <c r="U49">
-        <v>0.7239679143984323</v>
+        <v>0.7110394877910486</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -30059,58 +29409,58 @@
         <v>167</v>
       </c>
       <c r="D50">
-        <v>0.1598298908425387</v>
+        <v>0.1574343099711882</v>
       </c>
       <c r="E50">
-        <v>0.1116982145422071</v>
+        <v>0.1100748976290902</v>
       </c>
       <c r="F50">
-        <v>0.1586883695663109</v>
+        <v>0.1588728244443254</v>
       </c>
       <c r="G50">
-        <v>0.07663157894736843</v>
+        <v>0.07521833027760746</v>
       </c>
       <c r="H50">
-        <v>0.08307418849237898</v>
+        <v>0.08215534371177266</v>
       </c>
       <c r="I50">
-        <v>0.0912976140389388</v>
+        <v>0.09367669683965657</v>
       </c>
       <c r="J50">
-        <v>0.0723270415219749</v>
+        <v>0.06849325418240693</v>
       </c>
       <c r="K50">
-        <v>0.1030805030749626</v>
+        <v>0.1008502952995991</v>
       </c>
       <c r="L50">
-        <v>0.05577894724996905</v>
+        <v>0.05414132273557899</v>
       </c>
       <c r="M50">
-        <v>0.06779658574939385</v>
+        <v>0.06736597367186843</v>
       </c>
       <c r="N50">
-        <v>0.08107753663359783</v>
+        <v>0.08844996974079657</v>
       </c>
       <c r="O50">
-        <v>0.1621168543632773</v>
+        <v>0.1659493329160935</v>
       </c>
       <c r="P50">
-        <v>0.4134765849012382</v>
+        <v>0.4147195046315747</v>
       </c>
       <c r="Q50">
-        <v>0.6221120077209726</v>
+        <v>0.6341016631855497</v>
       </c>
       <c r="R50">
-        <v>0.5549751907378755</v>
+        <v>0.5386099622759457</v>
       </c>
       <c r="S50">
-        <v>0.6074980750338529</v>
+        <v>0.5874526001692691</v>
       </c>
       <c r="T50">
-        <v>0.6683109327049175</v>
+        <v>0.6727068714817334</v>
       </c>
       <c r="U50">
-        <v>0.5642967131365886</v>
+        <v>0.5542196524057463</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -30124,58 +29474,58 @@
         <v>168</v>
       </c>
       <c r="D51">
-        <v>0.1595512778612981</v>
+        <v>0.1571598729292844</v>
       </c>
       <c r="E51">
-        <v>0.1129603377319253</v>
+        <v>0.111318678306095</v>
       </c>
       <c r="F51">
-        <v>0.1614438196030301</v>
+        <v>0.1616314773383289</v>
       </c>
       <c r="G51">
-        <v>0.07672405820753435</v>
+        <v>0.07530910402428659</v>
       </c>
       <c r="H51">
-        <v>0.08396803943393226</v>
+        <v>0.08303930818573364</v>
       </c>
       <c r="I51">
-        <v>0.09204882897055507</v>
+        <v>0.09444748733786638</v>
       </c>
       <c r="J51">
-        <v>0.07254455179550452</v>
+        <v>0.06869923504570026</v>
       </c>
       <c r="K51">
-        <v>0.1031977764234399</v>
+        <v>0.1009650313696793</v>
       </c>
       <c r="L51">
-        <v>0.05612066152282284</v>
+        <v>0.0544730045553706</v>
       </c>
       <c r="M51">
-        <v>0.06832988230838578</v>
+        <v>0.06789588298153702</v>
       </c>
       <c r="N51">
-        <v>0.08274270017127397</v>
+        <v>0.0902665476813244</v>
       </c>
       <c r="O51">
-        <v>0.1599190056663676</v>
+        <v>0.1636995265863619</v>
       </c>
       <c r="P51">
-        <v>0.414493873826253</v>
+        <v>0.4157398515495268</v>
       </c>
       <c r="Q51">
-        <v>0.626755314870915</v>
+        <v>0.6388344584859426</v>
       </c>
       <c r="R51">
-        <v>0.5572106919916768</v>
+        <v>0.540779542585251</v>
       </c>
       <c r="S51">
-        <v>0.6081246847038208</v>
+        <v>0.588058533743451</v>
       </c>
       <c r="T51">
-        <v>0.6747237921523466</v>
+        <v>0.6791619126983595</v>
       </c>
       <c r="U51">
-        <v>0.5652895534466544</v>
+        <v>0.5551947628374208</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -30189,58 +29539,58 @@
         <v>169</v>
       </c>
       <c r="D52">
-        <v>0.1610807895940911</v>
+        <v>0.1586664598572723</v>
       </c>
       <c r="E52">
-        <v>0.1144023181599605</v>
+        <v>0.1127397023452855</v>
       </c>
       <c r="F52">
-        <v>0.1649930082593081</v>
+        <v>0.1651847914712403</v>
       </c>
       <c r="G52">
-        <v>0.07741710866313069</v>
+        <v>0.07598937316116416</v>
       </c>
       <c r="H52">
-        <v>0.08424005633418895</v>
+        <v>0.08330831643416269</v>
       </c>
       <c r="I52">
-        <v>0.09177200139023543</v>
+        <v>0.09416344603414296</v>
       </c>
       <c r="J52">
-        <v>0.07328434542939871</v>
+        <v>0.06939981497186032</v>
       </c>
       <c r="K52">
-        <v>0.1044037527471513</v>
+        <v>0.1021449156808974</v>
       </c>
       <c r="L52">
-        <v>0.05740312156550898</v>
+        <v>0.05571781261450072</v>
       </c>
       <c r="M52">
-        <v>0.06932011378090999</v>
+        <v>0.06887982496872948</v>
       </c>
       <c r="N52">
-        <v>0.08146186878925028</v>
+        <v>0.08886924946918175</v>
       </c>
       <c r="O52">
-        <v>0.1572557009034079</v>
+        <v>0.1609732607054867</v>
       </c>
       <c r="P52">
-        <v>0.4227119725930396</v>
+        <v>0.4239826541023948</v>
       </c>
       <c r="Q52">
-        <v>0.6439130318222032</v>
+        <v>0.6563228475867015</v>
       </c>
       <c r="R52">
-        <v>0.5663661100144054</v>
+        <v>0.5496649836610691</v>
       </c>
       <c r="S52">
-        <v>0.618665533813026</v>
+        <v>0.5982515688684586</v>
       </c>
       <c r="T52">
-        <v>0.6864378008108163</v>
+        <v>0.6909529724155112</v>
       </c>
       <c r="U52">
-        <v>0.5738841786213381</v>
+        <v>0.5636359074799165</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -30254,58 +29604,58 @@
         <v>170</v>
       </c>
       <c r="D53">
-        <v>0.189932348519511</v>
+        <v>0.1870855825074371</v>
       </c>
       <c r="E53">
-        <v>0.1220930886109151</v>
+        <v>0.1203187023637483</v>
       </c>
       <c r="F53">
-        <v>0.1526639035039184</v>
+        <v>0.1528413557127665</v>
       </c>
       <c r="G53">
-        <v>0.09533958928328573</v>
+        <v>0.09358132526757623</v>
       </c>
       <c r="H53">
-        <v>0.09585784703450469</v>
+        <v>0.09479760818021972</v>
       </c>
       <c r="I53">
-        <v>0.121308406656057</v>
+        <v>0.1244695269864833</v>
       </c>
       <c r="J53">
-        <v>0.128726082327539</v>
+        <v>0.1219027916977189</v>
       </c>
       <c r="K53">
-        <v>0.138362236134966</v>
+        <v>0.1353686871548986</v>
       </c>
       <c r="L53">
-        <v>0.06996927947426265</v>
+        <v>0.06791503834977951</v>
       </c>
       <c r="M53">
-        <v>0.0756807712732018</v>
+        <v>0.07520008255139592</v>
       </c>
       <c r="N53">
-        <v>0.06903788712466594</v>
+        <v>0.07531554707614034</v>
       </c>
       <c r="O53">
-        <v>0.1716674154618531</v>
+        <v>0.1757256714066709</v>
       </c>
       <c r="P53">
-        <v>0.4821545581026565</v>
+        <v>0.4836039253346138</v>
       </c>
       <c r="Q53">
-        <v>0.6340098120693816</v>
+        <v>0.6462287680026072</v>
       </c>
       <c r="R53">
-        <v>0.6452275516192711</v>
+        <v>0.626200942018684</v>
       </c>
       <c r="S53">
-        <v>0.7017709688553753</v>
+        <v>0.6786147929018942</v>
       </c>
       <c r="T53">
-        <v>0.7001244849186854</v>
+        <v>0.7047296832197152</v>
       </c>
       <c r="U53">
-        <v>0.6135528322174807</v>
+        <v>0.602596168802822</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -30319,58 +29669,58 @@
         <v>171</v>
       </c>
       <c r="D54">
-        <v>0.1877075299039153</v>
+        <v>0.1848941101757539</v>
       </c>
       <c r="E54">
-        <v>0.1217327496299812</v>
+        <v>0.1199636002110359</v>
       </c>
       <c r="F54">
-        <v>0.1525240686900798</v>
+        <v>0.1527013583588904</v>
       </c>
       <c r="G54">
-        <v>0.09566272269821842</v>
+        <v>0.09389849941773737</v>
       </c>
       <c r="H54">
-        <v>0.09570281443790746</v>
+        <v>0.09464429032673094</v>
       </c>
       <c r="I54">
-        <v>0.1220596215876733</v>
+        <v>0.1252403174846931</v>
       </c>
       <c r="J54">
-        <v>0.1301191032925046</v>
+        <v>0.1232219738048125</v>
       </c>
       <c r="K54">
-        <v>0.1394897224222948</v>
+        <v>0.136471779608189</v>
       </c>
       <c r="L54">
-        <v>0.07120897834559278</v>
+        <v>0.06911834067075788</v>
       </c>
       <c r="M54">
-        <v>0.07674726147791687</v>
+        <v>0.07625979891112106</v>
       </c>
       <c r="N54">
-        <v>0.06626275246361463</v>
+        <v>0.07228806761649792</v>
       </c>
       <c r="O54">
-        <v>0.1725124546833716</v>
+        <v>0.1765906875436402</v>
       </c>
       <c r="P54">
-        <v>0.5012491709593933</v>
+        <v>0.5027559370185863</v>
       </c>
       <c r="Q54">
-        <v>0.6339186616980778</v>
+        <v>0.6461358609355095</v>
       </c>
       <c r="R54">
-        <v>0.6420850450834978</v>
+        <v>0.6231511023953409</v>
       </c>
       <c r="S54">
-        <v>0.7040172052146669</v>
+        <v>0.6807869107144273</v>
       </c>
       <c r="T54">
-        <v>0.7025897744848077</v>
+        <v>0.7072111886839614</v>
       </c>
       <c r="U54">
-        <v>0.631734922876914</v>
+        <v>0.620453568519488</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -30384,58 +29734,58 @@
         <v>172</v>
       </c>
       <c r="D55">
-        <v>0.1861085691875286</v>
+        <v>0.1833191151874674</v>
       </c>
       <c r="E55">
-        <v>0.1212518813192029</v>
+        <v>0.1194897203885255</v>
       </c>
       <c r="F55">
-        <v>0.1536447592124986</v>
+        <v>0.1538233515403143</v>
       </c>
       <c r="G55">
-        <v>0.0949234326125391</v>
+        <v>0.09317284340752023</v>
       </c>
       <c r="H55">
-        <v>0.09628546441632782</v>
+        <v>0.09522049588599647</v>
       </c>
       <c r="I55">
-        <v>0.1226919348052756</v>
+        <v>0.1258891078634622</v>
       </c>
       <c r="J55">
-        <v>0.1296405010895414</v>
+        <v>0.1227687405237325</v>
       </c>
       <c r="K55">
-        <v>0.1386725026317248</v>
+        <v>0.1356722408521186</v>
       </c>
       <c r="L55">
-        <v>0.06770406268637681</v>
+        <v>0.0657163264840039</v>
       </c>
       <c r="M55">
-        <v>0.07602357537161981</v>
+        <v>0.07554070931915086</v>
       </c>
       <c r="N55">
-        <v>0.0683974714336541</v>
+        <v>0.07461689797006901</v>
       </c>
       <c r="O55">
-        <v>0.1745410466289904</v>
+        <v>0.1786672358547741</v>
       </c>
       <c r="P55">
-        <v>0.4888856198231713</v>
+        <v>0.4903552207750635</v>
       </c>
       <c r="Q55">
-        <v>0.6325943004209003</v>
+        <v>0.6447859759017947</v>
       </c>
       <c r="R55">
-        <v>0.6484074054313611</v>
+        <v>0.6292870276137817</v>
       </c>
       <c r="S55">
-        <v>0.7140004779226297</v>
+        <v>0.690440767659019</v>
       </c>
       <c r="T55">
-        <v>0.7017265902892889</v>
+        <v>0.7063423267347338</v>
       </c>
       <c r="U55">
-        <v>0.6247925338408683</v>
+        <v>0.6136351548217789</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -30449,58 +29799,58 @@
         <v>173</v>
       </c>
       <c r="D56">
-        <v>0.1839531995555265</v>
+        <v>0.1811960509160828</v>
       </c>
       <c r="E56">
-        <v>0.1201102874593292</v>
+        <v>0.1183647173813188</v>
       </c>
       <c r="F56">
-        <v>0.1550924016377775</v>
+        <v>0.155272676664254</v>
       </c>
       <c r="G56">
-        <v>0.09381531347749218</v>
+        <v>0.09208516033701815</v>
       </c>
       <c r="H56">
-        <v>0.09644106489789428</v>
+        <v>0.0953743753433442</v>
       </c>
       <c r="I56">
-        <v>0.1240760727068737</v>
+        <v>0.1273093143820793</v>
       </c>
       <c r="J56">
-        <v>0.1285519547069183</v>
+        <v>0.1217378939343322</v>
       </c>
       <c r="K56">
-        <v>0.1380898295381092</v>
+        <v>0.1351021742362084</v>
       </c>
       <c r="L56">
-        <v>0.06736197331552868</v>
+        <v>0.06538428057878989</v>
       </c>
       <c r="M56">
-        <v>0.07705198766687386</v>
+        <v>0.07656258962241567</v>
       </c>
       <c r="N56">
-        <v>0.06741533522534524</v>
+        <v>0.07354545547794153</v>
       </c>
       <c r="O56">
-        <v>0.175218073634154</v>
+        <v>0.1793602679291648</v>
       </c>
       <c r="P56">
-        <v>0.4936593977051159</v>
+        <v>0.4951433487385711</v>
       </c>
       <c r="Q56">
-        <v>0.6328570279617168</v>
+        <v>0.6450537668599</v>
       </c>
       <c r="R56">
-        <v>0.6458731259670277</v>
+        <v>0.6268274795304405</v>
       </c>
       <c r="S56">
-        <v>0.7092584233863474</v>
+        <v>0.6858551856103379</v>
       </c>
       <c r="T56">
-        <v>0.7045624499342071</v>
+        <v>0.7091968397710134</v>
       </c>
       <c r="U56">
-        <v>0.6211583636493063</v>
+        <v>0.6100658826756495</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -30514,58 +29864,58 @@
         <v>174</v>
       </c>
       <c r="D57">
-        <v>0.1890981436695209</v>
+        <v>0.1862638809831446</v>
       </c>
       <c r="E57">
-        <v>0.1201102874593292</v>
+        <v>0.1183647173813188</v>
       </c>
       <c r="F57">
-        <v>0.1488813214892911</v>
+        <v>0.149054376931659</v>
       </c>
       <c r="G57">
-        <v>0.09612457500339998</v>
+        <v>0.09435183418791718</v>
       </c>
       <c r="H57">
-        <v>0.09515878063739409</v>
+        <v>0.09410627382987286</v>
       </c>
       <c r="I57">
-        <v>0.1183425710818836</v>
+        <v>0.1214264060584861</v>
       </c>
       <c r="J57">
-        <v>0.1259848160714819</v>
+        <v>0.1193068297655454</v>
       </c>
       <c r="K57">
-        <v>0.1384785860712505</v>
+        <v>0.1354825197913561</v>
       </c>
       <c r="L57">
-        <v>0.07069584428932059</v>
+        <v>0.06862027181293688</v>
       </c>
       <c r="M57">
-        <v>0.0764426382022287</v>
+        <v>0.0759571104594385</v>
       </c>
       <c r="N57">
-        <v>0.06493889573800876</v>
+        <v>0.07084383173831429</v>
       </c>
       <c r="O57">
-        <v>0.1678641166975519</v>
+        <v>0.1718324618122997</v>
       </c>
       <c r="P57">
-        <v>0.4983164865633088</v>
+        <v>0.4998144369085489</v>
       </c>
       <c r="Q57">
-        <v>0.6333878448298973</v>
+        <v>0.6455948138977047</v>
       </c>
       <c r="R57">
-        <v>0.6438510377207491</v>
+        <v>0.6248650190597325</v>
       </c>
       <c r="S57">
-        <v>0.69123011974617</v>
+        <v>0.6684217577768865</v>
       </c>
       <c r="T57">
-        <v>0.696918055194971</v>
+        <v>0.7015021626114022</v>
       </c>
       <c r="U57">
-        <v>0.6191726830291745</v>
+        <v>0.6081156618123005</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -30579,58 +29929,58 @@
         <v>175</v>
       </c>
       <c r="D58">
-        <v>0.145786489313027</v>
+        <v>0.1436013953781027</v>
       </c>
       <c r="E58">
-        <v>0.08796455313594834</v>
+        <v>0.08668615896066459</v>
       </c>
       <c r="F58">
-        <v>0.09909861875396116</v>
+        <v>0.09921380818897538</v>
       </c>
       <c r="G58">
-        <v>0.05750849993200055</v>
+        <v>0.05644792135401421</v>
       </c>
       <c r="H58">
-        <v>0.05381567589669036</v>
+        <v>0.05322044585219812</v>
       </c>
       <c r="I58">
-        <v>0.04839677806842642</v>
+        <v>0.04965792759051186</v>
       </c>
       <c r="J58">
-        <v>0.04887075750490045</v>
+        <v>0.04628030049940467</v>
       </c>
       <c r="K58">
-        <v>0.07713566771935657</v>
+        <v>0.07546679183328855</v>
       </c>
       <c r="L58">
-        <v>0.05573618607861304</v>
+        <v>0.05409981699742724</v>
       </c>
       <c r="M58">
-        <v>0.08318417770239953</v>
+        <v>0.0826558308663202</v>
       </c>
       <c r="N58">
-        <v>0.06088292969493377</v>
+        <v>0.0664190540665292</v>
       </c>
       <c r="O58">
-        <v>0.09589216353686872</v>
+        <v>0.09815907564530794</v>
       </c>
       <c r="P58">
-        <v>0.3559513895468576</v>
+        <v>0.3570213872716724</v>
       </c>
       <c r="Q58">
-        <v>0.4255451596471945</v>
+        <v>0.4337464799648642</v>
       </c>
       <c r="R58">
-        <v>0.383110494584645</v>
+        <v>0.3718132494560751</v>
       </c>
       <c r="S58">
-        <v>0.3432748320632982</v>
+        <v>0.3319478710397829</v>
       </c>
       <c r="T58">
-        <v>0.4807647501314747</v>
+        <v>0.4839270692021434</v>
       </c>
       <c r="U58">
-        <v>0.4919017949803492</v>
+        <v>0.4831175434576446</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -30644,58 +29994,58 @@
         <v>176</v>
       </c>
       <c r="D59">
-        <v>0.1452995293810053</v>
+        <v>0.1431217341553032</v>
       </c>
       <c r="E59">
-        <v>0.08754426174224209</v>
+        <v>0.08627197568722361</v>
       </c>
       <c r="F59">
-        <v>0.09727724515356681</v>
+        <v>0.0973903174753597</v>
       </c>
       <c r="G59">
-        <v>0.05695416836665307</v>
+        <v>0.05590381283715529</v>
       </c>
       <c r="H59">
-        <v>0.05292199532062785</v>
+        <v>0.05233664985939483</v>
       </c>
       <c r="I59">
-        <v>0.0482781202553643</v>
+        <v>0.04953617772772644</v>
       </c>
       <c r="J59">
-        <v>0.04760878001213918</v>
+        <v>0.04508521573767123</v>
       </c>
       <c r="K59">
-        <v>0.07550187452675125</v>
+        <v>0.07386834672468351</v>
       </c>
       <c r="L59">
-        <v>0.05488133774948705</v>
+        <v>0.05327006631981461</v>
       </c>
       <c r="M59">
-        <v>0.0828413736039815</v>
+        <v>0.08231520409856524</v>
       </c>
       <c r="N59">
-        <v>0.05951687503619921</v>
+        <v>0.06492878316972849</v>
       </c>
       <c r="O59">
-        <v>0.08989089162216417</v>
+        <v>0.09201593232560323</v>
       </c>
       <c r="P59">
-        <v>0.348594495669042</v>
+        <v>0.349642378408659</v>
       </c>
       <c r="Q59">
-        <v>0.4113535830138602</v>
+        <v>0.4192813961298989</v>
       </c>
       <c r="R59">
-        <v>0.3772197620444966</v>
+        <v>0.366096224111197</v>
       </c>
       <c r="S59">
-        <v>0.3259920877253538</v>
+        <v>0.3152354014590021</v>
       </c>
       <c r="T59">
-        <v>0.4704065397852469</v>
+        <v>0.4735007258114133</v>
       </c>
       <c r="U59">
-        <v>0.4829737253241717</v>
+        <v>0.4743489088965864</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -30709,58 +30059,58 @@
         <v>177</v>
       </c>
       <c r="D60">
-        <v>0.1414063010654291</v>
+        <v>0.1392868587750348</v>
       </c>
       <c r="E60">
-        <v>0.08622218613975158</v>
+        <v>0.0849691138894903</v>
       </c>
       <c r="F60">
-        <v>0.09559570636701106</v>
+        <v>0.09570682411562005</v>
       </c>
       <c r="G60">
-        <v>0.05519869441044472</v>
+        <v>0.05418071353989943</v>
       </c>
       <c r="H60">
-        <v>0.05296089544101946</v>
+        <v>0.05237511972373176</v>
       </c>
       <c r="I60">
-        <v>0.04709190797617088</v>
+        <v>0.0483190544848552</v>
       </c>
       <c r="J60">
-        <v>0.04656431279290753</v>
+        <v>0.04409611183923112</v>
       </c>
       <c r="K60">
-        <v>0.07417936358431677</v>
+        <v>0.07257444909028339</v>
       </c>
       <c r="L60">
-        <v>0.05394096707764903</v>
+        <v>0.0523573041658985</v>
       </c>
       <c r="M60">
-        <v>0.08116553393462125</v>
+        <v>0.08065000857586292</v>
       </c>
       <c r="N60">
-        <v>0.05605829934055387</v>
+        <v>0.06115571693797375</v>
       </c>
       <c r="O60">
-        <v>0.08853857996074736</v>
+        <v>0.09063165171524859</v>
       </c>
       <c r="P60">
-        <v>0.3451506734552418</v>
+        <v>0.3461882039893563</v>
       </c>
       <c r="Q60">
-        <v>0.4067108120425726</v>
+        <v>0.4145491473416654</v>
       </c>
       <c r="R60">
-        <v>0.3671157232033292</v>
+        <v>0.3562901353528145</v>
       </c>
       <c r="S60">
-        <v>0.3208761914876669</v>
+        <v>0.3102883132779279</v>
       </c>
       <c r="T60">
-        <v>0.4606652065761766</v>
+        <v>0.4636953171813135</v>
       </c>
       <c r="U60">
-        <v>0.4783467148225438</v>
+        <v>0.4698045263187825</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -30774,58 +30124,58 @@
         <v>178</v>
       </c>
       <c r="D61">
-        <v>0.1647656709588862</v>
+        <v>0.1622961110566448</v>
       </c>
       <c r="E61">
-        <v>0.1106165730951058</v>
+        <v>0.1090089757426122</v>
       </c>
       <c r="F61">
-        <v>0.1369727271812722</v>
+        <v>0.137131940410021</v>
       </c>
       <c r="G61">
-        <v>0.09418468652250782</v>
+        <v>0.09244772136051883</v>
       </c>
       <c r="H61">
-        <v>0.09558583013424801</v>
+        <v>0.09452859993179068</v>
       </c>
       <c r="I61">
-        <v>0.1067182517179773</v>
+        <v>0.1094991738686551</v>
       </c>
       <c r="J61">
-        <v>0.1353847225400742</v>
+        <v>0.1282084821696263</v>
       </c>
       <c r="K61">
-        <v>0.145908360573993</v>
+        <v>0.1427515467194272</v>
       </c>
       <c r="L61">
-        <v>0.09706785897815805</v>
+        <v>0.09421802560447282</v>
       </c>
       <c r="M61">
-        <v>0.08428874581657562</v>
+        <v>0.08375338328250566</v>
       </c>
       <c r="N61">
-        <v>0.05272838597042835</v>
+        <v>0.05752301238062999</v>
       </c>
       <c r="O61">
-        <v>0.1344346637826644</v>
+        <v>0.1376127291832402</v>
       </c>
       <c r="P61">
-        <v>0.4680671011753677</v>
+        <v>0.4694741212012085</v>
       </c>
       <c r="Q61">
-        <v>0.5730409372402885</v>
+        <v>0.5840848703573791</v>
       </c>
       <c r="R61">
-        <v>0.5774155684788987</v>
+        <v>0.560388613304437</v>
       </c>
       <c r="S61">
-        <v>0.5500358441972227</v>
+        <v>0.5318864374046809</v>
       </c>
       <c r="T61">
-        <v>0.622564389324919</v>
+        <v>0.6266594217509507</v>
       </c>
       <c r="U61">
-        <v>0.5662823937567204</v>
+        <v>0.5561698732690954</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -30839,58 +30189,58 @@
         <v>179</v>
       </c>
       <c r="D62">
-        <v>0.1648351199424799</v>
+        <v>0.1623645191169434</v>
       </c>
       <c r="E62">
-        <v>0.1097154133906212</v>
+        <v>0.1081209126466607</v>
       </c>
       <c r="F62">
-        <v>0.1366457752784121</v>
+        <v>0.1368046084675051</v>
       </c>
       <c r="G62">
-        <v>0.09330667754657963</v>
+        <v>0.09158590473028304</v>
       </c>
       <c r="H62">
-        <v>0.09500318015582764</v>
+        <v>0.09395239437252514</v>
       </c>
       <c r="I62">
-        <v>0.1039896098194523</v>
+        <v>0.1066994275379011</v>
       </c>
       <c r="J62">
-        <v>0.1342096098546283</v>
+        <v>0.1270956578349995</v>
       </c>
       <c r="K62">
-        <v>0.1460634938223724</v>
+        <v>0.1429033235680371</v>
       </c>
       <c r="L62">
-        <v>0.09792270730728403</v>
+        <v>0.09504777628208544</v>
       </c>
       <c r="M62">
-        <v>0.08417440917492375</v>
+        <v>0.08363977285351265</v>
       </c>
       <c r="N62">
-        <v>0.05106322243275221</v>
+        <v>0.05570643444010215</v>
       </c>
       <c r="O62">
-        <v>0.130040210923781</v>
+        <v>0.1331143904797962</v>
       </c>
       <c r="P62">
-        <v>0.4616098098567318</v>
+        <v>0.4629974191225016</v>
       </c>
       <c r="Q62">
-        <v>0.5568108093616793</v>
+        <v>0.5675419472923798</v>
       </c>
       <c r="R62">
-        <v>0.5728165181667823</v>
+        <v>0.5559251807826682</v>
       </c>
       <c r="S62">
-        <v>0.5347529405517352</v>
+        <v>0.5171078202309923</v>
       </c>
       <c r="T62">
-        <v>0.607892476983604</v>
+        <v>0.6118910021923586</v>
       </c>
       <c r="U62">
-        <v>0.5583471644106087</v>
+        <v>0.5483763491397117</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -30904,58 +30254,58 @@
         <v>180</v>
       </c>
       <c r="D63">
-        <v>0.1655998758088764</v>
+        <v>0.1631178125809374</v>
       </c>
       <c r="E63">
-        <v>0.1106165730951058</v>
+        <v>0.1090089757426122</v>
       </c>
       <c r="F63">
-        <v>0.1371125619951108</v>
+        <v>0.1372719377638971</v>
       </c>
       <c r="G63">
-        <v>0.09423092615259078</v>
+        <v>0.09249310823385841</v>
       </c>
       <c r="H63">
-        <v>0.09550802989346477</v>
+        <v>0.09445166020311682</v>
       </c>
       <c r="I63">
-        <v>0.1064414241376577</v>
+        <v>0.1092151325649316</v>
       </c>
       <c r="J63">
-        <v>0.1346444313986926</v>
+        <v>0.1275074311069994</v>
       </c>
       <c r="K63">
-        <v>0.1465307403918961</v>
+        <v>0.1433604609811124</v>
       </c>
       <c r="L63">
-        <v>0.09779479889121032</v>
+        <v>0.09492362315305256</v>
       </c>
       <c r="M63">
-        <v>0.0847457836433767</v>
+        <v>0.08420751821964155</v>
       </c>
       <c r="N63">
-        <v>0.05153277786511555</v>
+        <v>0.05621868685314541</v>
       </c>
       <c r="O63">
-        <v>0.1318572319302861</v>
+        <v>0.1349743662676829</v>
       </c>
       <c r="P63">
-        <v>0.4630968469030036</v>
+        <v>0.4644889262349199</v>
       </c>
       <c r="Q63">
-        <v>0.5638883676040857</v>
+        <v>0.5747559077964429</v>
       </c>
       <c r="R63">
-        <v>0.5754841807608173</v>
+        <v>0.5585141787651327</v>
       </c>
       <c r="S63">
-        <v>0.5380612271991079</v>
+        <v>0.5203069441014606</v>
       </c>
       <c r="T63">
-        <v>0.6149199945856827</v>
+        <v>0.6189647445913393</v>
       </c>
       <c r="U63">
-        <v>0.5642967131365886</v>
+        <v>0.5542196524057463</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -30969,58 +30319,58 @@
         <v>181</v>
       </c>
       <c r="D64">
-        <v>0.1975104581998823</v>
+        <v>0.194550109087078</v>
       </c>
       <c r="E64">
-        <v>0.1077326122390353</v>
+        <v>0.1061669276642312</v>
       </c>
       <c r="F64">
-        <v>0.1242698912507671</v>
+        <v>0.1244143390618712</v>
       </c>
       <c r="G64">
-        <v>0.1002355501155991</v>
+        <v>0.09838699420941162</v>
       </c>
       <c r="H64">
-        <v>0.08093723735320173</v>
+        <v>0.08004202839060673</v>
       </c>
       <c r="I64">
-        <v>0.1050176523313882</v>
+        <v>0.1077542593398343</v>
       </c>
       <c r="J64">
-        <v>0.101614909304385</v>
+        <v>0.09622868107487646</v>
       </c>
       <c r="K64">
-        <v>0.1145945297061702</v>
+        <v>0.1121152091407771</v>
       </c>
       <c r="L64">
-        <v>0.07261934680435264</v>
+        <v>0.07048730185892087</v>
       </c>
       <c r="M64">
-        <v>0.1347937412266438</v>
+        <v>0.1339375946772942</v>
       </c>
       <c r="N64">
-        <v>0.06754358384563831</v>
+        <v>0.07368536582864058</v>
       </c>
       <c r="O64">
-        <v>0.1608063590757088</v>
+        <v>0.1646078572279805</v>
       </c>
       <c r="P64">
-        <v>0.3563034513022795</v>
+        <v>0.357374507332493</v>
       </c>
       <c r="Q64">
-        <v>0.5580064877617222</v>
+        <v>0.5687606694078391</v>
       </c>
       <c r="R64">
-        <v>0.5893293496238595</v>
+        <v>0.5719510782941233</v>
       </c>
       <c r="S64">
-        <v>0.6768180973369089</v>
+        <v>0.6544852855707048</v>
       </c>
       <c r="T64">
-        <v>0.6273729244192369</v>
+        <v>0.6314995858742823</v>
       </c>
       <c r="U64">
-        <v>0.4938837290332733</v>
+        <v>0.4850640846589873</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -31034,58 +30384,58 @@
         <v>182</v>
       </c>
       <c r="D65">
-        <v>0.2084253872802144</v>
+        <v>0.2053014417638891</v>
       </c>
       <c r="E65">
-        <v>0.1137409681065654</v>
+        <v>0.1120879637322483</v>
       </c>
       <c r="F65">
-        <v>0.1244570083397886</v>
+        <v>0.1246016736505111</v>
       </c>
       <c r="G65">
-        <v>0.1096586427308582</v>
+        <v>0.1076363050327975</v>
       </c>
       <c r="H65">
-        <v>0.08206392113213547</v>
+        <v>0.08115625044673036</v>
       </c>
       <c r="I65">
-        <v>0.1046621666941055</v>
+        <v>0.1073895102647886</v>
       </c>
       <c r="J65">
-        <v>0.1013532203659665</v>
+        <v>0.0959808632933296</v>
       </c>
       <c r="K65">
-        <v>0.1193408683768261</v>
+        <v>0.1167588579613445</v>
       </c>
       <c r="L65">
-        <v>0.08531378822717435</v>
+        <v>0.08280904480865491</v>
       </c>
       <c r="M65">
-        <v>0.1552848021801147</v>
+        <v>0.1542985060335495</v>
       </c>
       <c r="N65">
-        <v>0.06818399953665015</v>
+        <v>0.07438401493471192</v>
       </c>
       <c r="O65">
-        <v>0.1613551989824682</v>
+        <v>0.1651696718324039</v>
       </c>
       <c r="P65">
-        <v>0.3611949155500591</v>
+        <v>0.362280675429646</v>
       </c>
       <c r="Q65">
-        <v>0.5522586525830406</v>
+        <v>0.5629020590590847</v>
       </c>
       <c r="R65">
-        <v>0.5921677426239129</v>
+        <v>0.5747057721474655</v>
       </c>
       <c r="S65">
-        <v>0.6841143828160263</v>
+        <v>0.6615408171887202</v>
       </c>
       <c r="T65">
-        <v>0.6249076348531145</v>
+        <v>0.6290180804100362</v>
       </c>
       <c r="U65">
-        <v>0.4975216457920431</v>
+        <v>0.488637036467123</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -31099,58 +30449,58 @@
         <v>183</v>
       </c>
       <c r="D66">
-        <v>0.2026545852670109</v>
+        <v>0.1996171343534305</v>
       </c>
       <c r="E66">
-        <v>0.1074921780836461</v>
+        <v>0.105929987752976</v>
       </c>
       <c r="F66">
-        <v>0.1247371809703933</v>
+        <v>0.1248821719458671</v>
       </c>
       <c r="G66">
-        <v>0.1021759825921393</v>
+        <v>0.1002916410000257</v>
       </c>
       <c r="H66">
-        <v>0.08066522045294505</v>
+        <v>0.0797730201421777</v>
       </c>
       <c r="I66">
-        <v>0.1043457052091146</v>
+        <v>0.107064802254585</v>
       </c>
       <c r="J66">
-        <v>0.1012666540631436</v>
+        <v>0.09589888554810307</v>
       </c>
       <c r="K66">
-        <v>0.1155280994330249</v>
+        <v>0.113028580533305</v>
       </c>
       <c r="L66">
-        <v>0.0892890767713065</v>
+        <v>0.08666762211507813</v>
       </c>
       <c r="M66">
-        <v>0.1473244608373847</v>
+        <v>0.1463887250411014</v>
       </c>
       <c r="N66">
-        <v>0.06741533522534524</v>
+        <v>0.07354545547794153</v>
       </c>
       <c r="O66">
-        <v>0.1603409030096588</v>
+        <v>0.164131397676837</v>
       </c>
       <c r="P66">
-        <v>0.3610388315140152</v>
+        <v>0.3621241222015485</v>
       </c>
       <c r="Q66">
-        <v>0.5543819200557626</v>
+        <v>0.5650662472103037</v>
       </c>
       <c r="R66">
-        <v>0.5886410926745985</v>
+        <v>0.5712831168146475</v>
       </c>
       <c r="S66">
-        <v>0.680248519767411</v>
+        <v>0.6578025151378358</v>
       </c>
       <c r="T66">
-        <v>0.6262634331653565</v>
+        <v>0.6303827967364578</v>
       </c>
       <c r="U66">
-        <v>0.4952062672576252</v>
+        <v>0.4863630053472179</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -31164,58 +30514,58 @@
         <v>184</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0.9850116842430268</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0.9854669394692654</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>1.001162371751116</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0.9815578813698776</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0.9889394672727907</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>1.026058542994378</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0.9469937210358153</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0.9783644073434368</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0.9706408135124677</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0.9936484695687015</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>1.090930650008719</v>
       </c>
       <c r="O67">
-        <v>1</v>
+        <v>1.023640222775531</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>1.003006022047496</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>1.019272502886578</v>
       </c>
       <c r="R67">
-        <v>1</v>
+        <v>0.9705117837066355</v>
       </c>
       <c r="S67">
-        <v>1</v>
+        <v>0.9670032290004101</v>
       </c>
       <c r="T67">
-        <v>1</v>
+        <v>1.006577684969216</v>
       </c>
       <c r="U67">
-        <v>1</v>
+        <v>0.9821422657686062</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -31229,58 +30579,58 @@
         <v>185</v>
       </c>
       <c r="D68">
-        <v>0.9949915027125955</v>
+        <v>0.9800782558944339</v>
       </c>
       <c r="E68">
-        <v>0.9936300561429365</v>
+        <v>0.9791895703918541</v>
       </c>
       <c r="F68">
-        <v>0.998641892095812</v>
+        <v>0.9998026852206652</v>
       </c>
       <c r="G68">
-        <v>0.9958003535971712</v>
+        <v>0.9774356853442143</v>
       </c>
       <c r="H68">
-        <v>0.9897439974558753</v>
+        <v>0.9787969015804555</v>
       </c>
       <c r="I68">
-        <v>0.9909085920207804</v>
+        <v>1.016730226169452</v>
       </c>
       <c r="J68">
-        <v>1.022278385289699</v>
+        <v>0.9680912120199765</v>
       </c>
       <c r="K68">
-        <v>1.009261824293128</v>
+        <v>0.9874258465789021</v>
       </c>
       <c r="L68">
-        <v>1.02932141021842</v>
+        <v>0.9991013709802072</v>
       </c>
       <c r="M68">
-        <v>1.0090646007171</v>
+        <v>1.002655496198499</v>
       </c>
       <c r="N68">
-        <v>0.9900090187739432</v>
+        <v>1.080031182365552</v>
       </c>
       <c r="O68">
-        <v>1.001351564940455</v>
+        <v>1.025023739012274</v>
       </c>
       <c r="P68">
-        <v>0.9928390838415623</v>
+        <v>0.9958235800172058</v>
       </c>
       <c r="Q68">
-        <v>0.9893890244229376</v>
+        <v>1.008457027252077</v>
       </c>
       <c r="R68">
-        <v>1.013930534066051</v>
+        <v>0.9840315311710649</v>
       </c>
       <c r="S68">
-        <v>1.022398640575631</v>
+        <v>0.9886627867622652</v>
       </c>
       <c r="T68">
-        <v>0.9981515875710352</v>
+        <v>1.0047171142656</v>
       </c>
       <c r="U68">
-        <v>0.999007159689934</v>
+        <v>0.9811671553369316</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -31294,58 +30644,58 @@
         <v>186</v>
       </c>
       <c r="D69">
-        <v>0.9971485064383292</v>
+        <v>0.9822029297672372</v>
       </c>
       <c r="E69">
-        <v>0.9885840614012626</v>
+        <v>0.9742169093971987</v>
       </c>
       <c r="F69">
-        <v>0.9820629156061689</v>
+        <v>0.9832044377970881</v>
       </c>
       <c r="G69">
-        <v>1.016814905480756</v>
+        <v>0.9980626843690034</v>
       </c>
       <c r="H69">
-        <v>1.002759920950412</v>
+        <v>0.9916688620272063</v>
       </c>
       <c r="I69">
-        <v>0.9674209303601807</v>
+        <v>0.9926305102676324</v>
       </c>
       <c r="J69">
-        <v>1.050218405787007</v>
+        <v>0.9945502359965396</v>
       </c>
       <c r="K69">
-        <v>1.021469333481079</v>
+        <v>0.9993692390707115</v>
       </c>
       <c r="L69">
-        <v>1.0315870021043</v>
+        <v>1.001300446931405</v>
       </c>
       <c r="M69">
-        <v>1.001752612967895</v>
+        <v>0.9953899507619969</v>
       </c>
       <c r="N69">
-        <v>0.9630685344078637</v>
+        <v>1.050640982244515</v>
       </c>
       <c r="O69">
-        <v>0.9921395173444612</v>
+        <v>1.015593916558892</v>
       </c>
       <c r="P69">
-        <v>0.9756947734288123</v>
+        <v>0.978627733429366</v>
       </c>
       <c r="Q69">
-        <v>0.9777593094018927</v>
+        <v>0.9966031785147189</v>
       </c>
       <c r="R69">
-        <v>1.019479272261644</v>
+        <v>0.989416646974591</v>
       </c>
       <c r="S69">
-        <v>1.035748612696811</v>
+        <v>1.001572252910512</v>
       </c>
       <c r="T69">
-        <v>0.9912461140068833</v>
+        <v>0.9977662186717802</v>
       </c>
       <c r="U69">
-        <v>0.9824810517363465</v>
+        <v>0.9649361662270585</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -31359,58 +30709,58 @@
         <v>187</v>
       </c>
       <c r="D70">
-        <v>1.009731028171776</v>
+        <v>0.994596860691924</v>
       </c>
       <c r="E70">
-        <v>1.014176247603465</v>
+        <v>0.9994371628082104</v>
       </c>
       <c r="F70">
-        <v>0.961424705491786</v>
+        <v>0.9625422384102748</v>
       </c>
       <c r="G70">
-        <v>1.017924656602747</v>
+        <v>0.9991519693291527</v>
       </c>
       <c r="H70">
-        <v>1.000545169570452</v>
+        <v>0.9894786069773666</v>
       </c>
       <c r="I70">
-        <v>0.9144395461003287</v>
+        <v>0.9382685083281432</v>
       </c>
       <c r="J70">
-        <v>1.072238087183212</v>
+        <v>1.015402736017955</v>
       </c>
       <c r="K70">
-        <v>1.023611649768223</v>
+        <v>1.001465205075326</v>
       </c>
       <c r="L70">
-        <v>1.026459412521521</v>
+        <v>0.996323399207419</v>
       </c>
       <c r="M70">
-        <v>0.9941349728103144</v>
+        <v>0.9878206942776916</v>
       </c>
       <c r="N70">
-        <v>0.7788828304056794</v>
+        <v>0.8497071524550982</v>
       </c>
       <c r="O70">
-        <v>0.915306908537883</v>
+        <v>0.9369449677637011</v>
       </c>
       <c r="P70">
-        <v>0.9827011015643312</v>
+        <v>0.9856551227417323</v>
       </c>
       <c r="Q70">
-        <v>0.9222755422106647</v>
+        <v>0.9400501002601397</v>
       </c>
       <c r="R70">
-        <v>1.02446780131249</v>
+        <v>0.9942580732017996</v>
       </c>
       <c r="S70">
-        <v>0.9963837187690838</v>
+        <v>0.9635062733731407</v>
       </c>
       <c r="T70">
-        <v>0.9561040880314741</v>
+        <v>0.9623930395203247</v>
       </c>
       <c r="U70">
-        <v>1.015537014210729</v>
+        <v>0.9974018241088108</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -31424,58 +30774,58 @@
         <v>188</v>
       </c>
       <c r="D71">
-        <v>1.013277011569384</v>
+        <v>0.9980896957706995</v>
       </c>
       <c r="E71">
-        <v>1.015562647148825</v>
+        <v>1.000803413725059</v>
       </c>
       <c r="F71">
-        <v>0.9719777069102543</v>
+        <v>0.9731075063394813</v>
       </c>
       <c r="G71">
-        <v>1.022771657826737</v>
+        <v>1.00390958158157</v>
       </c>
       <c r="H71">
-        <v>1.005167753219908</v>
+        <v>0.9940500623890834</v>
       </c>
       <c r="I71">
-        <v>0.9288297022579132</v>
+        <v>0.9530336509886559</v>
       </c>
       <c r="J71">
-        <v>1.071024168913742</v>
+        <v>1.014253163038916</v>
       </c>
       <c r="K71">
-        <v>1.024470423107467</v>
+        <v>1.002305398344417</v>
       </c>
       <c r="L71">
-        <v>1.028083586837061</v>
+        <v>0.9978998890863409</v>
       </c>
       <c r="M71">
-        <v>0.9976010917039556</v>
+        <v>0.9912647980117013</v>
       </c>
       <c r="N71">
-        <v>0.8517652802025502</v>
+        <v>0.9292168507862263</v>
       </c>
       <c r="O71">
-        <v>0.9299301940354419</v>
+        <v>0.9519139509881324</v>
       </c>
       <c r="P71">
-        <v>0.9916622201832117</v>
+        <v>0.9946431786807514</v>
       </c>
       <c r="Q71">
-        <v>0.9569341304522666</v>
+        <v>0.9753766462436726</v>
       </c>
       <c r="R71">
-        <v>1.033020327588967</v>
+        <v>1.002558400733581</v>
       </c>
       <c r="S71">
-        <v>1.014353609643416</v>
+        <v>0.9808832158734054</v>
       </c>
       <c r="T71">
-        <v>0.9773131228406527</v>
+        <v>0.9837415806789792</v>
       </c>
       <c r="U71">
-        <v>1.014877618382157</v>
+        <v>0.9967542035956989</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -31489,58 +30839,58 @@
         <v>189</v>
       </c>
       <c r="D72">
-        <v>1.019813386495849</v>
+        <v>1.004528101445861</v>
       </c>
       <c r="E72">
-        <v>1.022713221380529</v>
+        <v>1.007850068228623</v>
       </c>
       <c r="F72">
-        <v>1.003782582014627</v>
+        <v>1.004949350532223</v>
       </c>
       <c r="G72">
-        <v>1.024300285597715</v>
+        <v>1.005410018217854</v>
       </c>
       <c r="H72">
-        <v>1.018961679122277</v>
+        <v>1.007691420122573</v>
       </c>
       <c r="I72">
-        <v>0.984146438131475</v>
+        <v>1.009791860402288</v>
       </c>
       <c r="J72">
-        <v>1.06950179600203</v>
+        <v>1.01281148545045</v>
       </c>
       <c r="K72">
-        <v>1.027194489076034</v>
+        <v>1.004970527531318</v>
       </c>
       <c r="L72">
-        <v>1.034152672385661</v>
+        <v>1.00379079122051</v>
       </c>
       <c r="M72">
-        <v>1.003237651436875</v>
+        <v>0.9968655569639492</v>
       </c>
       <c r="N72">
-        <v>0.8590630404024524</v>
+        <v>0.9371782010647134</v>
       </c>
       <c r="O72">
-        <v>0.9680926133117945</v>
+        <v>0.9909785383578313</v>
       </c>
       <c r="P72">
-        <v>0.9935821036936564</v>
+        <v>0.996568833403357</v>
       </c>
       <c r="Q72">
-        <v>0.9610895150264067</v>
+        <v>0.9796121154790127</v>
       </c>
       <c r="R72">
-        <v>1.034439524088993</v>
+        <v>1.003935747660252</v>
       </c>
       <c r="S72">
-        <v>1.042487321774686</v>
+        <v>1.008088606348111</v>
       </c>
       <c r="T72">
-        <v>0.9833531932267779</v>
+        <v>0.9898213807452962</v>
       </c>
       <c r="U72">
-        <v>1.027439858229897</v>
+        <v>1.009092110302886</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -31554,58 +30904,58 @@
         <v>190</v>
       </c>
       <c r="D73">
-        <v>1.036007255376168</v>
+        <v>1.020479251506075</v>
       </c>
       <c r="E73">
-        <v>1.034247815796212</v>
+        <v>1.019217029685465</v>
       </c>
       <c r="F73">
-        <v>1.027036407351891</v>
+        <v>1.028230205459164</v>
       </c>
       <c r="G73">
-        <v>1.037046103631171</v>
+        <v>1.017920776363099</v>
       </c>
       <c r="H73">
-        <v>1.027474274810894</v>
+        <v>1.016109861967983</v>
       </c>
       <c r="I73">
-        <v>1.00893896988433</v>
+        <v>1.035230449409764</v>
       </c>
       <c r="J73">
-        <v>1.06788987174257</v>
+        <v>1.011285003297955</v>
       </c>
       <c r="K73">
-        <v>1.029835447947255</v>
+        <v>1.007554347692179</v>
       </c>
       <c r="L73">
-        <v>1.037273487698661</v>
+        <v>1.006819981934743</v>
       </c>
       <c r="M73">
-        <v>1.023005232110586</v>
+        <v>1.016507583247458</v>
       </c>
       <c r="N73">
-        <v>0.9502602205876269</v>
+        <v>1.036668000123088</v>
       </c>
       <c r="O73">
-        <v>0.9959428161087623</v>
+        <v>1.019487126153263</v>
       </c>
       <c r="P73">
-        <v>1.016710466606494</v>
+        <v>1.019766720685033</v>
       </c>
       <c r="Q73">
-        <v>1.010434036621002</v>
+        <v>1.029907629508477</v>
       </c>
       <c r="R73">
-        <v>1.04196766792936</v>
+        <v>1.011241899966766</v>
       </c>
       <c r="S73">
-        <v>1.055152271460054</v>
+        <v>1.020335653588989</v>
       </c>
       <c r="T73">
-        <v>1.014549868303388</v>
+        <v>1.021223257722648</v>
       </c>
       <c r="U73">
-        <v>1.041324636301988</v>
+        <v>1.022728937698304</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -31619,58 +30969,58 @@
         <v>191</v>
       </c>
       <c r="D74">
-        <v>1.030304268252827</v>
+        <v>1.014861742554496</v>
       </c>
       <c r="E74">
-        <v>1.029201821054538</v>
+        <v>1.01424436869081</v>
       </c>
       <c r="F74">
-        <v>1.022926873434403</v>
+        <v>1.024115894735541</v>
       </c>
       <c r="G74">
-        <v>1.028222494220046</v>
+        <v>1.00925989300348</v>
       </c>
       <c r="H74">
-        <v>1.023430933830043</v>
+        <v>1.012111242492378</v>
       </c>
       <c r="I74">
-        <v>0.9978292815287713</v>
+        <v>1.023831258762538</v>
       </c>
       <c r="J74">
-        <v>1.067193361260087</v>
+        <v>1.010625412244409</v>
       </c>
       <c r="K74">
-        <v>1.02800709180564</v>
+        <v>1.005765549119275</v>
       </c>
       <c r="L74">
-        <v>1.038897662014201</v>
+        <v>1.008396471813665</v>
       </c>
       <c r="M74">
-        <v>1.017749451472277</v>
+        <v>1.011285184859814</v>
       </c>
       <c r="N74">
-        <v>0.9484275064331164</v>
+        <v>1.034668636079228</v>
       </c>
       <c r="O74">
-        <v>0.987997705077578</v>
+        <v>1.011354190927325</v>
       </c>
       <c r="P74">
-        <v>1.012207467100178</v>
+        <v>1.015250185062921</v>
       </c>
       <c r="Q74">
-        <v>1.00543685155894</v>
+        <v>1.024814136182881</v>
       </c>
       <c r="R74">
-        <v>1.042613242277117</v>
+        <v>1.011868437478523</v>
       </c>
       <c r="S74">
-        <v>1.052035153864536</v>
+        <v>1.017321390808949</v>
       </c>
       <c r="T74">
-        <v>1.010850824462951</v>
+        <v>1.01749988273714</v>
       </c>
       <c r="U74">
-        <v>1.038016417457504</v>
+        <v>1.019479796146725</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -31684,58 +31034,58 @@
         <v>192</v>
       </c>
       <c r="D75">
-        <v>1.029405516700438</v>
+        <v>1.013976461774162</v>
       </c>
       <c r="E75">
-        <v>1.025236218751366</v>
+        <v>1.010336398725951</v>
       </c>
       <c r="F75">
-        <v>1.015598120781063</v>
+        <v>1.016778623347145</v>
       </c>
       <c r="G75">
-        <v>1.025497076023392</v>
+        <v>1.006584737292525</v>
       </c>
       <c r="H75">
-        <v>1.021255934397928</v>
+        <v>1.009960299712663</v>
       </c>
       <c r="I75">
-        <v>0.9858476472704436</v>
+        <v>1.011537400572746</v>
       </c>
       <c r="J75">
-        <v>1.06623814688411</v>
+        <v>1.009720830228116</v>
       </c>
       <c r="K75">
-        <v>1.027194489076034</v>
+        <v>1.004970527531318</v>
       </c>
       <c r="L75">
-        <v>1.03321117641984</v>
+        <v>1.002876936810327</v>
       </c>
       <c r="M75">
-        <v>1.014930657039473</v>
+        <v>1.008484294085629</v>
       </c>
       <c r="N75">
-        <v>0.9232369951761971</v>
+        <v>1.007187535259665</v>
       </c>
       <c r="O75">
-        <v>0.9866448956021868</v>
+        <v>1.009969400734563</v>
       </c>
       <c r="P75">
-        <v>1.006298215256342</v>
+        <v>1.009323169877758</v>
       </c>
       <c r="Q75">
-        <v>0.9983163990241548</v>
+        <v>1.017556454706066</v>
       </c>
       <c r="R75">
-        <v>1.041060662647388</v>
+        <v>1.010361640652729</v>
       </c>
       <c r="S75">
-        <v>1.051785572046837</v>
+        <v>1.017080044385335</v>
       </c>
       <c r="T75">
-        <v>1.007768657759671</v>
+        <v>1.014397442512264</v>
       </c>
       <c r="U75">
-        <v>1.034048802784449</v>
+        <v>1.015583034082033</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -31749,58 +31099,58 @@
         <v>193</v>
       </c>
       <c r="D76">
-        <v>1.020017648212302</v>
+        <v>1.00472930162321</v>
       </c>
       <c r="E76">
-        <v>1.019946667332805</v>
+        <v>1.005123720678336</v>
       </c>
       <c r="F76">
-        <v>1.007097371306701</v>
+        <v>1.008267992841731</v>
       </c>
       <c r="G76">
-        <v>1.018479532163743</v>
+        <v>0.9996966118092275</v>
       </c>
       <c r="H76">
-        <v>1.017950843877064</v>
+        <v>1.006691765253672</v>
       </c>
       <c r="I76">
-        <v>0.9778964762409986</v>
+        <v>1.003379033611175</v>
       </c>
       <c r="J76">
-        <v>1.06506402921364</v>
+        <v>1.008608948166423</v>
       </c>
       <c r="K76">
-        <v>1.024239570059283</v>
+        <v>1.002079539938747</v>
       </c>
       <c r="L76">
-        <v>1.03428020570374</v>
+        <v>1.003914580264121</v>
       </c>
       <c r="M76">
-        <v>1.006399147054828</v>
+        <v>1.000006972246277</v>
       </c>
       <c r="N76">
-        <v>0.9064571111791427</v>
+        <v>0.9888818455036873</v>
       </c>
       <c r="O76">
-        <v>0.9767135068132066</v>
+        <v>0.9998032317021408</v>
       </c>
       <c r="P76">
-        <v>0.9981200101728892</v>
+        <v>1.001120380929516</v>
       </c>
       <c r="Q76">
-        <v>0.9851424894774939</v>
+        <v>1.004128650949639</v>
       </c>
       <c r="R76">
-        <v>1.04042042362482</v>
+        <v>1.009740281136937</v>
       </c>
       <c r="S76">
-        <v>1.04829142659905</v>
+        <v>1.013701194454727</v>
       </c>
       <c r="T76">
-        <v>0.9975347104338778</v>
+        <v>1.00409617950497</v>
       </c>
       <c r="U76">
-        <v>1.024794781781193</v>
+        <v>1.006494268926425</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -31814,58 +31164,58 @@
         <v>194</v>
       </c>
       <c r="D77">
-        <v>1.016684096999804</v>
+        <v>1.001445714728878</v>
       </c>
       <c r="E77">
-        <v>1.018922480281277</v>
+        <v>1.004114418199223</v>
       </c>
       <c r="F77">
-        <v>0.9966801806786515</v>
+        <v>0.9978386935655696</v>
       </c>
       <c r="G77">
-        <v>1.019817761457908</v>
+        <v>1.001010161319996</v>
       </c>
       <c r="H77">
-        <v>1.015736092497104</v>
+        <v>1.004501510203832</v>
       </c>
       <c r="I77">
-        <v>0.964378265986183</v>
+        <v>0.9895085584932274</v>
       </c>
       <c r="J77">
-        <v>1.064059064088914</v>
+        <v>1.007657252503448</v>
       </c>
       <c r="K77">
-        <v>1.027970155317931</v>
+        <v>1.005729411774368</v>
       </c>
       <c r="L77">
-        <v>1.039452807045841</v>
+        <v>1.008935318238793</v>
       </c>
       <c r="M77">
-        <v>1.002438015338194</v>
+        <v>0.9960709997782826</v>
       </c>
       <c r="N77">
-        <v>0.9119635277472096</v>
+        <v>0.9948889641095073</v>
       </c>
       <c r="O77">
-        <v>0.991843318029702</v>
+        <v>1.015290715026346</v>
       </c>
       <c r="P77">
-        <v>0.9972174155874595</v>
+        <v>1.000215073124862</v>
       </c>
       <c r="Q77">
-        <v>0.9852336398487975</v>
+        <v>1.004221558016737</v>
       </c>
       <c r="R77">
-        <v>1.04282665528464</v>
+        <v>1.01207555731712</v>
       </c>
       <c r="S77">
-        <v>1.056713485383533</v>
+        <v>1.021845352494154</v>
       </c>
       <c r="T77">
-        <v>0.9912461140068833</v>
+        <v>0.9977662186717802</v>
       </c>
       <c r="U77">
-        <v>1.022479403246775</v>
+        <v>1.00422023780652</v>
       </c>
     </row>
   </sheetData>
